--- a/du_lieu_mau.xlsx
+++ b/du_lieu_mau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phần mềm iStreamlit\Phần mêm íStreamlit - 1 trường - ATK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6089BC76-699D-42E4-8871-A30515443A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553F284-B1C5-4135-8D1D-54022CA8D25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E100854-2074-4D4E-A5FE-8BDFE25C48A8}"/>
   </bookViews>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:U245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H2" sqref="H2:H245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2631,6 +2631,9 @@
       <c r="G4" s="2">
         <v>8.5</v>
       </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
       <c r="J4">
         <v>6</v>
       </c>
@@ -2639,7 +2642,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>6.6166666666666671</v>
+        <v>7.4916666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2664,6 +2667,9 @@
       <c r="G5" s="2">
         <v>7.5</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
       <c r="I5">
         <v>7.25</v>
       </c>
@@ -2672,7 +2678,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="0"/>
-        <v>6.1791666666666671</v>
+        <v>6.8041666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2841,6 +2847,9 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
+      <c r="H10">
+        <v>5.25</v>
+      </c>
       <c r="L10">
         <v>9.5</v>
       </c>
@@ -2849,7 +2858,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="0"/>
-        <v>6.8791666666666664</v>
+        <v>7.5354166666666664</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -2910,6 +2919,9 @@
       <c r="G12" s="2">
         <v>7.5</v>
       </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
       <c r="L12">
         <v>9</v>
       </c>
@@ -2918,7 +2930,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>6.3333333333333339</v>
+        <v>6.8333333333333339</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -2979,6 +2991,9 @@
       <c r="G14" s="2">
         <v>8</v>
       </c>
+      <c r="H14">
+        <v>5.5</v>
+      </c>
       <c r="L14">
         <v>8.5</v>
       </c>
@@ -2987,7 +3002,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>6.8624999999999989</v>
+        <v>7.5499999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -3048,6 +3063,9 @@
       <c r="G16" s="2">
         <v>7.75</v>
       </c>
+      <c r="H16">
+        <v>5.5</v>
+      </c>
       <c r="I16">
         <v>7.5</v>
       </c>
@@ -3056,7 +3074,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>6.4520833333333325</v>
+        <v>7.1395833333333325</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -3081,6 +3099,9 @@
       <c r="G17" s="2">
         <v>7.5</v>
       </c>
+      <c r="H17">
+        <v>4.25</v>
+      </c>
       <c r="L17">
         <v>8.5</v>
       </c>
@@ -3089,7 +3110,7 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>6.1854166666666668</v>
+        <v>6.7166666666666668</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3114,6 +3135,9 @@
       <c r="G18" s="2">
         <v>5.5</v>
       </c>
+      <c r="H18">
+        <v>3.25</v>
+      </c>
       <c r="I18">
         <v>4.8499999999999996</v>
       </c>
@@ -3121,8 +3145,8 @@
         <v>6.1166666666666671</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8333333333333339</v>
+        <f>(SUM(F18:Q18)/4+S18/4+R18)/2+T18</f>
+        <v>5.2395833333333339</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3183,6 +3207,9 @@
       <c r="G20" s="2">
         <v>7.75</v>
       </c>
+      <c r="H20">
+        <v>4.5</v>
+      </c>
       <c r="I20">
         <v>6</v>
       </c>
@@ -3191,7 +3218,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="0"/>
-        <v>6.3354166666666671</v>
+        <v>6.8979166666666671</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3216,6 +3243,9 @@
       <c r="G21" s="2">
         <v>8.5</v>
       </c>
+      <c r="H21">
+        <v>3.5</v>
+      </c>
       <c r="L21">
         <v>9</v>
       </c>
@@ -3224,7 +3254,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="0"/>
-        <v>6.8291666666666666</v>
+        <v>7.2666666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3249,6 +3279,9 @@
       <c r="G22" s="2">
         <v>8.25</v>
       </c>
+      <c r="H22">
+        <v>3.5</v>
+      </c>
       <c r="K22">
         <v>5.75</v>
       </c>
@@ -3257,7 +3290,7 @@
       </c>
       <c r="U22" s="1">
         <f t="shared" si="0"/>
-        <v>6.1583333333333332</v>
+        <v>6.5958333333333332</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3282,6 +3315,9 @@
       <c r="G23" s="2">
         <v>5.5</v>
       </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
       <c r="I23">
         <v>8</v>
       </c>
@@ -3290,7 +3326,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="0"/>
-        <v>6.1375000000000011</v>
+        <v>6.7625000000000011</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -3315,6 +3351,9 @@
       <c r="G24" s="2">
         <v>7.75</v>
       </c>
+      <c r="H24">
+        <v>4.5</v>
+      </c>
       <c r="J24">
         <v>6.75</v>
       </c>
@@ -3323,7 +3362,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="0"/>
-        <v>6.739583333333333</v>
+        <v>7.302083333333333</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3384,6 +3423,9 @@
       <c r="G26" s="2">
         <v>8.75</v>
       </c>
+      <c r="H26">
+        <v>4.5</v>
+      </c>
       <c r="J26">
         <v>5.25</v>
       </c>
@@ -3392,7 +3434,7 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" si="0"/>
-        <v>6.4208333333333325</v>
+        <v>6.9833333333333325</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -3525,6 +3567,9 @@
       <c r="G30" s="2">
         <v>8</v>
       </c>
+      <c r="H30">
+        <v>4.75</v>
+      </c>
       <c r="L30">
         <v>7.5</v>
       </c>
@@ -3533,7 +3578,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="0"/>
-        <v>6.03125</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -3558,6 +3603,9 @@
       <c r="G31" s="2">
         <v>7.75</v>
       </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
       <c r="L31">
         <v>8.75</v>
       </c>
@@ -3566,7 +3614,7 @@
       </c>
       <c r="U31" s="1">
         <f t="shared" si="0"/>
-        <v>6.7437500000000004</v>
+        <v>7.3687500000000004</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -3663,6 +3711,9 @@
       <c r="G34" s="2">
         <v>8.75</v>
       </c>
+      <c r="H34">
+        <v>5.25</v>
+      </c>
       <c r="J34">
         <v>6.1</v>
       </c>
@@ -3671,7 +3722,7 @@
       </c>
       <c r="U34" s="1">
         <f t="shared" si="0"/>
-        <v>6.6854166666666668</v>
+        <v>7.3416666666666668</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -3768,6 +3819,9 @@
       <c r="G37" s="2">
         <v>8</v>
       </c>
+      <c r="H37">
+        <v>3.5</v>
+      </c>
       <c r="J37">
         <v>4.25</v>
       </c>
@@ -3776,7 +3830,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="0"/>
-        <v>5.9479166666666661</v>
+        <v>6.3854166666666661</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -3909,6 +3963,9 @@
       <c r="G41" s="2">
         <v>8.25</v>
       </c>
+      <c r="H41">
+        <v>5.25</v>
+      </c>
       <c r="L41">
         <v>9</v>
       </c>
@@ -3917,7 +3974,7 @@
       </c>
       <c r="U41" s="1">
         <f t="shared" si="0"/>
-        <v>6.8937499999999998</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -4878,6 +4935,9 @@
       <c r="G68" s="2">
         <v>7.75</v>
       </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
       <c r="L68">
         <v>6.25</v>
       </c>
@@ -4886,7 +4946,7 @@
       </c>
       <c r="U68" s="1">
         <f t="shared" si="1"/>
-        <v>6.6437500000000007</v>
+        <v>7.1437500000000007</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
@@ -6807,9 +6867,6 @@
       <c r="G122" s="2">
         <v>5.75</v>
       </c>
-      <c r="H122">
-        <v>2.75</v>
-      </c>
       <c r="L122">
         <v>4.75</v>
       </c>
@@ -6821,7 +6878,7 @@
       </c>
       <c r="U122" s="1">
         <f t="shared" si="1"/>
-        <v>6.4104166666666664</v>
+        <v>6.0666666666666664</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
@@ -7386,9 +7443,6 @@
       <c r="G138" s="2">
         <v>8</v>
       </c>
-      <c r="H138">
-        <v>2.5</v>
-      </c>
       <c r="L138">
         <v>6.5</v>
       </c>
@@ -7400,7 +7454,7 @@
       </c>
       <c r="U138" s="1">
         <f t="shared" si="2"/>
-        <v>6.9812499999999993</v>
+        <v>6.6687499999999993</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
@@ -7533,9 +7587,6 @@
       <c r="G142" s="2">
         <v>7.5</v>
       </c>
-      <c r="H142">
-        <v>4.75</v>
-      </c>
       <c r="L142">
         <v>6</v>
       </c>
@@ -7547,7 +7598,7 @@
       </c>
       <c r="U142" s="1">
         <f t="shared" si="2"/>
-        <v>6.9270833333333339</v>
+        <v>6.3333333333333339</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
@@ -7644,6 +7695,9 @@
       <c r="G145" s="2">
         <v>7.75</v>
       </c>
+      <c r="H145">
+        <v>4</v>
+      </c>
       <c r="M145">
         <v>9.25</v>
       </c>
@@ -7652,7 +7706,7 @@
       </c>
       <c r="U145" s="1">
         <f t="shared" si="2"/>
-        <v>6.1541666666666668</v>
+        <v>6.6541666666666668</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
@@ -7677,9 +7731,6 @@
       <c r="G146" s="2">
         <v>7.75</v>
       </c>
-      <c r="H146">
-        <v>4.25</v>
-      </c>
       <c r="L146">
         <v>5.25</v>
       </c>
@@ -7691,7 +7742,7 @@
       </c>
       <c r="U146" s="1">
         <f t="shared" si="2"/>
-        <v>6.7312500000000002</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
@@ -7716,9 +7767,6 @@
       <c r="G147" s="2">
         <v>7.5</v>
       </c>
-      <c r="H147">
-        <v>4</v>
-      </c>
       <c r="L147">
         <v>7.25</v>
       </c>
@@ -7730,7 +7778,7 @@
       </c>
       <c r="U147" s="1">
         <f t="shared" si="2"/>
-        <v>7.3833333333333346</v>
+        <v>6.8833333333333346</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
@@ -7827,9 +7875,6 @@
       <c r="G150" s="2">
         <v>8</v>
       </c>
-      <c r="H150">
-        <v>3.75</v>
-      </c>
       <c r="L150">
         <v>7.5</v>
       </c>
@@ -7841,7 +7886,7 @@
       </c>
       <c r="U150" s="1">
         <f t="shared" si="2"/>
-        <v>7.2312500000000002</v>
+        <v>6.7625000000000002</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
@@ -7938,9 +7983,6 @@
       <c r="G153" s="2">
         <v>7.5</v>
       </c>
-      <c r="H153">
-        <v>3.5</v>
-      </c>
       <c r="L153">
         <v>7.1</v>
       </c>
@@ -7952,7 +7994,7 @@
       </c>
       <c r="U153" s="1">
         <f t="shared" si="2"/>
-        <v>7.1083333333333334</v>
+        <v>6.6708333333333334</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -7977,9 +8019,6 @@
       <c r="G154" s="2">
         <v>7.25</v>
       </c>
-      <c r="H154">
-        <v>3.5</v>
-      </c>
       <c r="N154">
         <v>7.75</v>
       </c>
@@ -7991,7 +8030,7 @@
       </c>
       <c r="U154" s="1">
         <f t="shared" si="2"/>
-        <v>7.6104166666666675</v>
+        <v>7.1729166666666675</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
@@ -8016,9 +8055,6 @@
       <c r="G155" s="2">
         <v>4.25</v>
       </c>
-      <c r="H155">
-        <v>3.5</v>
-      </c>
       <c r="M155">
         <v>4</v>
       </c>
@@ -8030,7 +8066,7 @@
       </c>
       <c r="U155" s="1">
         <f t="shared" si="2"/>
-        <v>5.885416666666667</v>
+        <v>5.447916666666667</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
@@ -8091,9 +8127,6 @@
       <c r="G157" s="2">
         <v>7.5</v>
       </c>
-      <c r="H157">
-        <v>3.75</v>
-      </c>
       <c r="N157">
         <v>8.25</v>
       </c>
@@ -8105,7 +8138,7 @@
       </c>
       <c r="U157" s="1">
         <f t="shared" si="2"/>
-        <v>7.7208333333333332</v>
+        <v>7.2520833333333332</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
@@ -8130,9 +8163,6 @@
       <c r="G158" s="2">
         <v>3.75</v>
       </c>
-      <c r="H158">
-        <v>6.25</v>
-      </c>
       <c r="N158">
         <v>6.25</v>
       </c>
@@ -8144,7 +8174,7 @@
       </c>
       <c r="U158" s="1">
         <f t="shared" si="2"/>
-        <v>6.7208333333333332</v>
+        <v>5.9395833333333332</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
@@ -8169,9 +8199,6 @@
       <c r="G159" s="2">
         <v>6.5</v>
       </c>
-      <c r="H159">
-        <v>6</v>
-      </c>
       <c r="N159">
         <v>8.5</v>
       </c>
@@ -8183,7 +8210,7 @@
       </c>
       <c r="U159" s="1">
         <f t="shared" si="2"/>
-        <v>7.4520833333333343</v>
+        <v>6.7020833333333343</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
@@ -8280,9 +8307,6 @@
       <c r="G162" s="2">
         <v>5</v>
       </c>
-      <c r="H162">
-        <v>4.25</v>
-      </c>
       <c r="M162">
         <v>5.25</v>
       </c>
@@ -8294,7 +8318,7 @@
       </c>
       <c r="U162" s="1">
         <f t="shared" si="2"/>
-        <v>6.8479166666666664</v>
+        <v>6.3166666666666664</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.3">
@@ -8355,9 +8379,6 @@
       <c r="G164" s="2">
         <v>7.25</v>
       </c>
-      <c r="H164">
-        <v>5.75</v>
-      </c>
       <c r="N164">
         <v>7.75</v>
       </c>
@@ -8369,7 +8390,7 @@
       </c>
       <c r="U164" s="1">
         <f t="shared" si="2"/>
-        <v>7.375</v>
+        <v>6.65625</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
@@ -8430,9 +8451,6 @@
       <c r="G166" s="2">
         <v>7</v>
       </c>
-      <c r="H166">
-        <v>6</v>
-      </c>
       <c r="N166">
         <v>8.5</v>
       </c>
@@ -8444,7 +8462,7 @@
       </c>
       <c r="U166" s="1">
         <f t="shared" si="2"/>
-        <v>7.2687500000000007</v>
+        <v>6.5187500000000007</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
@@ -8469,9 +8487,6 @@
       <c r="G167" s="2">
         <v>5.25</v>
       </c>
-      <c r="H167">
-        <v>4.75</v>
-      </c>
       <c r="N167">
         <v>6</v>
       </c>
@@ -8483,7 +8498,7 @@
       </c>
       <c r="U167" s="1">
         <f t="shared" si="2"/>
-        <v>7.0124999999999993</v>
+        <v>6.4187499999999993</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
@@ -8724,9 +8739,6 @@
       <c r="G174" s="2">
         <v>6.5</v>
       </c>
-      <c r="H174">
-        <v>4</v>
-      </c>
       <c r="N174">
         <v>7</v>
       </c>
@@ -8738,7 +8750,7 @@
       </c>
       <c r="U174" s="1">
         <f t="shared" si="2"/>
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
@@ -8763,9 +8775,6 @@
       <c r="G175" s="2">
         <v>4.25</v>
       </c>
-      <c r="H175">
-        <v>3.75</v>
-      </c>
       <c r="N175">
         <v>8.75</v>
       </c>
@@ -8777,7 +8786,7 @@
       </c>
       <c r="U175" s="1">
         <f t="shared" si="2"/>
-        <v>7.0645833333333332</v>
+        <v>6.5958333333333332</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
@@ -8802,9 +8811,6 @@
       <c r="G176" s="2">
         <v>7</v>
       </c>
-      <c r="H176">
-        <v>7.75</v>
-      </c>
       <c r="N176">
         <v>9.25</v>
       </c>
@@ -8816,7 +8822,7 @@
       </c>
       <c r="U176" s="1">
         <f t="shared" si="2"/>
-        <v>8.4812499999999993</v>
+        <v>7.5124999999999993</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
@@ -8877,6 +8883,9 @@
       <c r="G178" s="2">
         <v>7.75</v>
       </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
       <c r="M178">
         <v>7.75</v>
       </c>
@@ -8885,7 +8894,7 @@
       </c>
       <c r="U178" s="1">
         <f t="shared" si="2"/>
-        <v>6.1770833333333339</v>
+        <v>6.4270833333333339</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.3">

--- a/du_lieu_mau.xlsx
+++ b/du_lieu_mau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phần mềm iStreamlit\Phần mêm íStreamlit - 1 trường - ATK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553F284-B1C5-4135-8D1D-54022CA8D25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208FB48-C6EB-4BB0-87FB-D63DF056A196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E100854-2074-4D4E-A5FE-8BDFE25C48A8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="687">
   <si>
     <t>TT</t>
   </si>
@@ -1377,9 +1377,6 @@
     <t>TN</t>
   </si>
   <si>
-    <t>008207001972</t>
-  </si>
-  <si>
     <t>DƯƠNG THỊ VÂN ANH</t>
   </si>
   <si>
@@ -1684,9 +1681,6 @@
   </si>
   <si>
     <t>ĐẶNG ANH THƠ</t>
-  </si>
-  <si>
-    <t>HOÀNG TRUNG THỜI</t>
   </si>
   <si>
     <t>THÂN THỊ THU THỦY</t>
@@ -2119,12 +2113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2139,10 +2139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2457,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4103E2B8-C7E1-4AF2-A4FD-40E7A02EF8B2}">
-  <dimension ref="A1:U245"/>
+  <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H245"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,7 +2548,7 @@
         <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -2581,7 +2584,7 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
         <v>122</v>
@@ -2617,7 +2620,7 @@
         <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -2653,7 +2656,7 @@
         <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
         <v>169</v>
@@ -2689,7 +2692,7 @@
         <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D6" t="s">
         <v>92</v>
@@ -2725,7 +2728,7 @@
         <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
         <v>144</v>
@@ -2761,7 +2764,7 @@
         <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D8" t="s">
         <v>177</v>
@@ -2797,7 +2800,7 @@
         <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -2833,7 +2836,7 @@
         <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
@@ -2869,7 +2872,7 @@
         <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -2905,7 +2908,7 @@
         <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
         <v>107</v>
@@ -2941,7 +2944,7 @@
         <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
         <v>128</v>
@@ -2977,7 +2980,7 @@
         <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -3013,7 +3016,7 @@
         <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s">
         <v>156</v>
@@ -3049,7 +3052,7 @@
         <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
         <v>104</v>
@@ -3085,7 +3088,7 @@
         <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -3121,7 +3124,7 @@
         <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
@@ -3157,7 +3160,7 @@
         <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
@@ -3193,7 +3196,7 @@
         <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
@@ -3229,7 +3232,7 @@
         <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
         <v>69</v>
@@ -3265,7 +3268,7 @@
         <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -3301,7 +3304,7 @@
         <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D23" t="s">
         <v>156</v>
@@ -3337,7 +3340,7 @@
         <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D24" t="s">
         <v>168</v>
@@ -3373,7 +3376,7 @@
         <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D25" t="s">
         <v>121</v>
@@ -3409,7 +3412,7 @@
         <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -3445,7 +3448,7 @@
         <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D27" t="s">
         <v>182</v>
@@ -3481,7 +3484,7 @@
         <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -3517,7 +3520,7 @@
         <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D29" t="s">
         <v>76</v>
@@ -3553,7 +3556,7 @@
         <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D30" t="s">
         <v>151</v>
@@ -3589,7 +3592,7 @@
         <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
@@ -3625,7 +3628,7 @@
         <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
         <v>163</v>
@@ -3661,7 +3664,7 @@
         <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D33" t="s">
         <v>183</v>
@@ -3697,7 +3700,7 @@
         <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D34" t="s">
         <v>143</v>
@@ -3733,7 +3736,7 @@
         <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D35" t="s">
         <v>162</v>
@@ -3769,7 +3772,7 @@
         <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
         <v>89</v>
@@ -3805,7 +3808,7 @@
         <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s">
         <v>85</v>
@@ -3841,7 +3844,7 @@
         <v>235</v>
       </c>
       <c r="C38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D38" t="s">
         <v>83</v>
@@ -3877,7 +3880,7 @@
         <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D39" t="s">
         <v>124</v>
@@ -3913,7 +3916,7 @@
         <v>237</v>
       </c>
       <c r="C40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D40" t="s">
         <v>172</v>
@@ -3949,7 +3952,7 @@
         <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D41" t="s">
         <v>166</v>
@@ -3985,7 +3988,7 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D42" t="s">
         <v>130</v>
@@ -4021,7 +4024,7 @@
         <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D43" t="s">
         <v>184</v>
@@ -4057,7 +4060,7 @@
         <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -4093,7 +4096,7 @@
         <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D45" t="s">
         <v>174</v>
@@ -4129,7 +4132,7 @@
         <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
         <v>120</v>
@@ -4165,7 +4168,7 @@
         <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -4201,7 +4204,7 @@
         <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D48" t="s">
         <v>105</v>
@@ -4237,7 +4240,7 @@
         <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D49" t="s">
         <v>135</v>
@@ -4273,7 +4276,7 @@
         <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D50" t="s">
         <v>47</v>
@@ -4309,7 +4312,7 @@
         <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D51" t="s">
         <v>102</v>
@@ -4345,7 +4348,7 @@
         <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
         <v>148</v>
@@ -4381,7 +4384,7 @@
         <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -4417,7 +4420,7 @@
         <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D54" t="s">
         <v>185</v>
@@ -4453,7 +4456,7 @@
         <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D55" t="s">
         <v>84</v>
@@ -4489,7 +4492,7 @@
         <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D56" t="s">
         <v>173</v>
@@ -4525,7 +4528,7 @@
         <v>253</v>
       </c>
       <c r="C57" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D57" t="s">
         <v>162</v>
@@ -4561,7 +4564,7 @@
         <v>255</v>
       </c>
       <c r="C58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D58" t="s">
         <v>142</v>
@@ -4597,7 +4600,7 @@
         <v>256</v>
       </c>
       <c r="C59" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D59" t="s">
         <v>152</v>
@@ -4633,7 +4636,7 @@
         <v>257</v>
       </c>
       <c r="C60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -4669,7 +4672,7 @@
         <v>258</v>
       </c>
       <c r="C61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D61" t="s">
         <v>139</v>
@@ -4705,7 +4708,7 @@
         <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D62" t="s">
         <v>58</v>
@@ -4741,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="C63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D63" t="s">
         <v>111</v>
@@ -4777,7 +4780,7 @@
         <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D64" t="s">
         <v>137</v>
@@ -4798,11 +4801,11 @@
         <v>9.5</v>
       </c>
       <c r="R64" s="1">
-        <v>6.666666666666667</v>
+        <v>7.03</v>
       </c>
       <c r="U64" s="1">
         <f t="shared" si="0"/>
-        <v>7.1270833333333332</v>
+        <v>7.3087499999999999</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
@@ -4813,7 +4816,7 @@
         <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D65" t="s">
         <v>149</v>
@@ -4834,11 +4837,11 @@
         <v>8.25</v>
       </c>
       <c r="R65" s="1">
-        <v>7.2666666666666666</v>
+        <v>6.67</v>
       </c>
       <c r="U65" s="1">
         <f t="shared" si="0"/>
-        <v>6.9270833333333339</v>
+        <v>6.6287500000000001</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
@@ -4849,7 +4852,7 @@
         <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D66" t="s">
         <v>132</v>
@@ -4870,11 +4873,11 @@
         <v>7.75</v>
       </c>
       <c r="R66" s="1">
-        <v>7.0333333333333341</v>
+        <v>7.27</v>
       </c>
       <c r="U66" s="1">
         <f t="shared" si="0"/>
-        <v>6.6541666666666668</v>
+        <v>6.7725</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
@@ -4885,7 +4888,7 @@
         <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
         <v>79</v>
@@ -4909,7 +4912,7 @@
         <v>5.6999999999999993</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" ref="U67:U130" si="1">(SUM(F67:Q67)/4+S67/4+R67)/2+T67</f>
+        <f t="shared" ref="U67:U129" si="1">(SUM(F67:Q67)/4+S67/4+R67)/2+T67</f>
         <v>5.0749999999999993</v>
       </c>
     </row>
@@ -4921,7 +4924,7 @@
         <v>265</v>
       </c>
       <c r="C68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D68" t="s">
         <v>148</v>
@@ -4957,7 +4960,7 @@
         <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D69" t="s">
         <v>21</v>
@@ -4993,7 +4996,7 @@
         <v>267</v>
       </c>
       <c r="C70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -5029,7 +5032,7 @@
         <v>268</v>
       </c>
       <c r="C71" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D71" t="s">
         <v>43</v>
@@ -5065,7 +5068,7 @@
         <v>269</v>
       </c>
       <c r="C72" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D72" t="s">
         <v>125</v>
@@ -5101,7 +5104,7 @@
         <v>270</v>
       </c>
       <c r="C73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
@@ -5137,7 +5140,7 @@
         <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D74" t="s">
         <v>159</v>
@@ -5173,7 +5176,7 @@
         <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D75" t="s">
         <v>94</v>
@@ -5209,7 +5212,7 @@
         <v>273</v>
       </c>
       <c r="C76" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D76" t="s">
         <v>112</v>
@@ -5245,7 +5248,7 @@
         <v>274</v>
       </c>
       <c r="C77" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
@@ -5281,7 +5284,7 @@
         <v>276</v>
       </c>
       <c r="C78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D78" t="s">
         <v>91</v>
@@ -5302,11 +5305,11 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="R78" s="1">
-        <v>6.4666666666666677</v>
+        <v>6.2833333333333341</v>
       </c>
       <c r="U78" s="1">
         <f t="shared" si="1"/>
-        <v>5.8645833333333339</v>
+        <v>5.7729166666666671</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
@@ -5317,7 +5320,7 @@
         <v>277</v>
       </c>
       <c r="C79" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D79" t="s">
         <v>32</v>
@@ -5338,11 +5341,11 @@
         <v>6.35</v>
       </c>
       <c r="R79" s="1">
-        <v>6.2833333333333341</v>
+        <v>6.2166666666666677</v>
       </c>
       <c r="U79" s="1">
         <f t="shared" si="1"/>
-        <v>5.7791666666666668</v>
+        <v>5.7458333333333336</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -5353,7 +5356,7 @@
         <v>278</v>
       </c>
       <c r="C80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D80" t="s">
         <v>186</v>
@@ -5374,11 +5377,11 @@
         <v>6.25</v>
       </c>
       <c r="R80" s="1">
-        <v>6.2166666666666677</v>
+        <v>6.1166666666666671</v>
       </c>
       <c r="U80" s="1">
         <f t="shared" si="1"/>
-        <v>5.8270833333333343</v>
+        <v>5.7770833333333336</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
@@ -5389,7 +5392,7 @@
         <v>279</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D81" t="s">
         <v>64</v>
@@ -5410,11 +5413,11 @@
         <v>5.35</v>
       </c>
       <c r="R81" s="1">
-        <v>6.1166666666666671</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="U81" s="1">
         <f t="shared" si="1"/>
-        <v>5.3770833333333332</v>
+        <v>5.4020833333333336</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
@@ -5425,7 +5428,7 @@
         <v>280</v>
       </c>
       <c r="C82" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D82" t="s">
         <v>169</v>
@@ -5446,11 +5449,11 @@
         <v>5.5</v>
       </c>
       <c r="R82" s="1">
-        <v>6.166666666666667</v>
+        <v>6.6166666666666671</v>
       </c>
       <c r="U82" s="1">
         <f t="shared" si="1"/>
-        <v>5.6895833333333332</v>
+        <v>5.9145833333333337</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
@@ -5461,7 +5464,7 @@
         <v>281</v>
       </c>
       <c r="C83" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -5482,11 +5485,11 @@
         <v>5.35</v>
       </c>
       <c r="R83" s="1">
-        <v>6.6166666666666671</v>
+        <v>5.75</v>
       </c>
       <c r="U83" s="1">
         <f t="shared" si="1"/>
-        <v>5.7520833333333332</v>
+        <v>5.3187499999999996</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
@@ -5497,7 +5500,7 @@
         <v>282</v>
       </c>
       <c r="C84" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -5518,11 +5521,11 @@
         <v>7</v>
       </c>
       <c r="R84" s="1">
-        <v>5.75</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="U84" s="1">
         <f t="shared" si="1"/>
-        <v>5.4937500000000004</v>
+        <v>5.6687500000000002</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5533,7 +5536,7 @@
         <v>283</v>
       </c>
       <c r="C85" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D85" t="s">
         <v>117</v>
@@ -5554,11 +5557,11 @@
         <v>8</v>
       </c>
       <c r="R85" s="1">
-        <v>6.1000000000000005</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="U85" s="1">
         <f t="shared" si="1"/>
-        <v>5.875</v>
+        <v>5.791666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
@@ -5569,7 +5572,7 @@
         <v>284</v>
       </c>
       <c r="C86" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D86" t="s">
         <v>171</v>
@@ -5590,11 +5593,11 @@
         <v>6.25</v>
       </c>
       <c r="R86" s="1">
-        <v>5.9333333333333336</v>
+        <v>6.5333333333333341</v>
       </c>
       <c r="U86" s="1">
         <f t="shared" si="1"/>
-        <v>5.572916666666667</v>
+        <v>5.8729166666666668</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
@@ -5605,7 +5608,7 @@
         <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D87" t="s">
         <v>40</v>
@@ -5626,11 +5629,11 @@
         <v>4</v>
       </c>
       <c r="R87" s="1">
-        <v>6.5333333333333341</v>
+        <v>5.9833333333333334</v>
       </c>
       <c r="U87" s="1">
         <f t="shared" si="1"/>
-        <v>5.5229166666666671</v>
+        <v>5.2479166666666668</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
@@ -5641,7 +5644,7 @@
         <v>286</v>
       </c>
       <c r="C88" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D88" t="s">
         <v>108</v>
@@ -5662,11 +5665,11 @@
         <v>5.25</v>
       </c>
       <c r="R88" s="1">
-        <v>5.9833333333333334</v>
+        <v>5.8666666666666671</v>
       </c>
       <c r="U88" s="1">
         <f t="shared" si="1"/>
-        <v>5.5166666666666666</v>
+        <v>5.4583333333333339</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
@@ -5677,7 +5680,7 @@
         <v>287</v>
       </c>
       <c r="C89" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D89" t="s">
         <v>165</v>
@@ -5698,47 +5701,47 @@
         <v>6.35</v>
       </c>
       <c r="R89" s="1">
-        <v>5.8666666666666671</v>
+        <v>6.3166666666666664</v>
       </c>
       <c r="U89" s="1">
         <f t="shared" si="1"/>
-        <v>5.6458333333333339</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90">
+        <v>5.8708333333333336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C90" t="s">
-        <v>535</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C90" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="4">
         <v>2</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="4">
         <v>4.5</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>2.35</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="3">
         <v>4.5</v>
       </c>
-      <c r="R90" s="1">
-        <v>6.3166666666666664</v>
-      </c>
-      <c r="U90" s="1">
-        <f t="shared" si="1"/>
-        <v>4.8270833333333334</v>
+      <c r="R90" s="5">
+        <v>5.2166666666666668</v>
+      </c>
+      <c r="U90" s="5">
+        <f>(SUM(F90:Q90)/4+S90/4+R90)/2+T90</f>
+        <v>4.2770833333333336</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
@@ -5749,7 +5752,7 @@
         <v>289</v>
       </c>
       <c r="C91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D91" t="s">
         <v>129</v>
@@ -5770,11 +5773,11 @@
         <v>6</v>
       </c>
       <c r="R91" s="1">
-        <v>5.2166666666666668</v>
+        <v>5.5666666666666664</v>
       </c>
       <c r="U91" s="1">
         <f t="shared" si="1"/>
-        <v>4.5645833333333332</v>
+        <v>4.739583333333333</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
@@ -5785,7 +5788,7 @@
         <v>290</v>
       </c>
       <c r="C92" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -5806,11 +5809,11 @@
         <v>3.2</v>
       </c>
       <c r="R92" s="1">
-        <v>5.5666666666666664</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="U92" s="1">
         <f t="shared" si="1"/>
-        <v>4.989583333333333</v>
+        <v>5.3729166666666668</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
@@ -5821,7 +5824,7 @@
         <v>291</v>
       </c>
       <c r="C93" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D93" t="s">
         <v>62</v>
@@ -5842,11 +5845,11 @@
         <v>7.75</v>
       </c>
       <c r="R93" s="1">
-        <v>6.333333333333333</v>
+        <v>6.8166666666666664</v>
       </c>
       <c r="U93" s="1">
         <f t="shared" si="1"/>
-        <v>5.8291666666666657</v>
+        <v>6.0708333333333329</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
@@ -5857,7 +5860,7 @@
         <v>292</v>
       </c>
       <c r="C94" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D94" t="s">
         <v>170</v>
@@ -5878,11 +5881,11 @@
         <v>5.5</v>
       </c>
       <c r="R94" s="1">
-        <v>6.8166666666666664</v>
+        <v>6.0333333333333341</v>
       </c>
       <c r="U94" s="1">
         <f t="shared" si="1"/>
-        <v>5.8208333333333329</v>
+        <v>5.4291666666666671</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
@@ -5893,7 +5896,7 @@
         <v>293</v>
       </c>
       <c r="C95" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D95" t="s">
         <v>49</v>
@@ -5914,11 +5917,11 @@
         <v>6.75</v>
       </c>
       <c r="R95" s="1">
-        <v>6.0333333333333341</v>
+        <v>6.8500000000000005</v>
       </c>
       <c r="U95" s="1">
         <f t="shared" si="1"/>
-        <v>6.0479166666666675</v>
+        <v>6.4562500000000007</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
@@ -5929,7 +5932,7 @@
         <v>295</v>
       </c>
       <c r="C96" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
@@ -5950,11 +5953,11 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="R96" s="1">
-        <v>6.8500000000000005</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="U96" s="1">
         <f t="shared" si="1"/>
-        <v>5.65</v>
+        <v>5.4249999999999989</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
@@ -5965,7 +5968,7 @@
         <v>296</v>
       </c>
       <c r="C97" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
@@ -5986,11 +5989,11 @@
         <v>6</v>
       </c>
       <c r="R97" s="1">
-        <v>6.3999999999999995</v>
+        <v>6.0166666666666666</v>
       </c>
       <c r="U97" s="1">
         <f t="shared" si="1"/>
-        <v>5.8812499999999996</v>
+        <v>5.6895833333333332</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
@@ -6001,7 +6004,7 @@
         <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D98" t="s">
         <v>68</v>
@@ -6022,11 +6025,11 @@
         <v>8</v>
       </c>
       <c r="R98" s="1">
-        <v>6.0166666666666666</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="U98" s="1">
         <f t="shared" si="1"/>
-        <v>5.8958333333333339</v>
+        <v>6.1791666666666671</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6037,7 +6040,7 @@
         <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D99" t="s">
         <v>26</v>
@@ -6058,11 +6061,11 @@
         <v>4.75</v>
       </c>
       <c r="R99" s="1">
-        <v>6.583333333333333</v>
+        <v>6.4666666666666677</v>
       </c>
       <c r="U99" s="1">
         <f t="shared" si="1"/>
-        <v>5.9166666666666661</v>
+        <v>5.8583333333333343</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
@@ -6073,7 +6076,7 @@
         <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D100" t="s">
         <v>38</v>
@@ -6094,11 +6097,11 @@
         <v>3.7</v>
       </c>
       <c r="R100" s="1">
-        <v>6.4666666666666677</v>
+        <v>5.5166666666666666</v>
       </c>
       <c r="U100" s="1">
         <f t="shared" si="1"/>
-        <v>5.1458333333333339</v>
+        <v>4.6708333333333334</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
@@ -6109,7 +6112,7 @@
         <v>275</v>
       </c>
       <c r="C101" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D101" t="s">
         <v>65</v>
@@ -6130,11 +6133,11 @@
         <v>8.25</v>
       </c>
       <c r="R101" s="1">
-        <v>5.5166666666666666</v>
+        <v>6.47</v>
       </c>
       <c r="U101" s="1">
         <f t="shared" si="1"/>
-        <v>5.7083333333333339</v>
+        <v>6.1850000000000005</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
@@ -6145,7 +6148,7 @@
         <v>299</v>
       </c>
       <c r="C102" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D102" t="s">
         <v>138</v>
@@ -6181,7 +6184,7 @@
         <v>300</v>
       </c>
       <c r="C103" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D103" t="s">
         <v>121</v>
@@ -6211,1552 +6214,1564 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
+        <v>301</v>
       </c>
       <c r="C104" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D104" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
       </c>
+      <c r="F104" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="G104" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="K104">
+        <v>2.35</v>
+      </c>
+      <c r="L104">
+        <v>2.85</v>
+      </c>
       <c r="R104" s="1">
         <v>5.2666666666666666</v>
       </c>
       <c r="U104" s="1">
         <f t="shared" si="1"/>
-        <v>2.6333333333333333</v>
+        <v>4.3083333333333336</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C105" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="E105" t="s">
         <v>16</v>
       </c>
       <c r="F105" s="2">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="G105" s="2">
+        <v>8</v>
+      </c>
+      <c r="K105">
+        <v>5.25</v>
+      </c>
+      <c r="L105">
         <v>6.25</v>
-      </c>
-      <c r="K105">
-        <v>2.35</v>
-      </c>
-      <c r="L105">
-        <v>2.85</v>
       </c>
       <c r="R105" s="1">
         <v>6.2333333333333343</v>
       </c>
       <c r="U105" s="1">
         <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
+        <v>6.0541666666666671</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
       </c>
       <c r="F106" s="2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="G106" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K106">
-        <v>5.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L106">
-        <v>6.25</v>
+        <v>5.35</v>
       </c>
       <c r="R106" s="1">
         <v>5.6500000000000012</v>
       </c>
       <c r="U106" s="1">
         <f t="shared" si="1"/>
-        <v>5.7625000000000011</v>
+        <v>5.3812500000000005</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C107" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D107" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="E107" t="s">
         <v>16</v>
       </c>
       <c r="F107" s="2">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="G107" s="2">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="K107">
-        <v>4.3499999999999996</v>
+        <v>5.85</v>
       </c>
       <c r="L107">
-        <v>5.35</v>
+        <v>3.7</v>
       </c>
       <c r="R107" s="1">
         <v>5.4666666666666659</v>
       </c>
       <c r="U107" s="1">
         <f t="shared" si="1"/>
-        <v>5.2895833333333329</v>
+        <v>5.364583333333333</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C108" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
         <v>16</v>
       </c>
       <c r="F108" s="2">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="G108" s="2">
         <v>6.75</v>
       </c>
       <c r="K108">
-        <v>5.85</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="R108" s="1">
         <v>6.1499999999999995</v>
       </c>
       <c r="U108" s="1">
         <f t="shared" si="1"/>
-        <v>5.7062499999999998</v>
+        <v>5.5124999999999993</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C109" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
       </c>
       <c r="F109" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G109" s="2">
         <v>6.75</v>
       </c>
-      <c r="K109">
-        <v>3.75</v>
+      <c r="I109">
+        <v>6.75</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="R109" s="1">
         <v>6.3166666666666673</v>
       </c>
       <c r="U109" s="1">
         <f t="shared" si="1"/>
-        <v>5.5958333333333332</v>
+        <v>6.0645833333333332</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F110" s="2">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="G110" s="2">
-        <v>6.75</v>
-      </c>
-      <c r="I110">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="L110">
-        <v>6.25</v>
+        <v>5.5</v>
+      </c>
+      <c r="M110">
+        <v>6.35</v>
       </c>
       <c r="R110" s="1">
         <v>6.7333333333333334</v>
       </c>
       <c r="U110" s="1">
         <f t="shared" si="1"/>
-        <v>6.2729166666666671</v>
+        <v>6.3791666666666664</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C111" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E111" t="s">
         <v>20</v>
       </c>
       <c r="F111" s="2">
-        <v>4.75</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G111" s="2">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="L111">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M111">
-        <v>6.35</v>
+        <v>6.75</v>
       </c>
       <c r="R111" s="1">
         <v>7.0333333333333341</v>
       </c>
       <c r="U111" s="1">
         <f t="shared" si="1"/>
-        <v>6.5291666666666668</v>
+        <v>6.8104166666666668</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C112" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D112" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E112" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="2">
-        <v>4.3499999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="G112" s="2">
         <v>8.25</v>
       </c>
       <c r="L112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M112">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="R112" s="1">
         <v>7.3833333333333329</v>
       </c>
       <c r="U112" s="1">
         <f t="shared" si="1"/>
-        <v>6.9854166666666666</v>
+        <v>7.3479166666666664</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="C113" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D113" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="E113" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="2">
-        <v>4.5</v>
+        <v>5.35</v>
       </c>
       <c r="G113" s="2">
+        <v>8</v>
+      </c>
+      <c r="L113">
+        <v>7.25</v>
+      </c>
+      <c r="M113">
         <v>8.25</v>
       </c>
-      <c r="L113">
-        <v>8</v>
-      </c>
-      <c r="M113">
-        <v>8.5</v>
-      </c>
       <c r="R113" s="1">
-        <v>6.3666666666666671</v>
+        <v>6.82</v>
       </c>
       <c r="U113" s="1">
         <f t="shared" si="1"/>
-        <v>6.8395833333333336</v>
+        <v>7.0162500000000003</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="C114" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E114" t="s">
         <v>20</v>
       </c>
       <c r="F114" s="2">
-        <v>5.35</v>
+        <v>3</v>
       </c>
       <c r="G114" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L114">
-        <v>7.25</v>
+        <v>5.25</v>
       </c>
       <c r="M114">
-        <v>8.25</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R114" s="1">
-        <v>7.2666666666666666</v>
+        <v>6.3666666666666671</v>
       </c>
       <c r="U114" s="1">
         <f t="shared" si="1"/>
-        <v>7.2395833333333339</v>
+        <v>5.7270833333333337</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="E115" t="s">
         <v>20</v>
       </c>
       <c r="F115" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G115" s="2">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="L115">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M115">
-        <v>5.0999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="R115" s="1">
         <v>6.3666666666666671</v>
       </c>
       <c r="U115" s="1">
         <f t="shared" si="1"/>
-        <v>5.7270833333333337</v>
+        <v>6.0333333333333332</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C116" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D116" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="E116" t="s">
         <v>20</v>
       </c>
       <c r="F116" s="2">
-        <v>2.2000000000000002</v>
+        <v>4.75</v>
       </c>
       <c r="G116" s="2">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="L116">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
       <c r="M116">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="R116" s="1">
         <v>6.8666666666666663</v>
       </c>
       <c r="U116" s="1">
         <f t="shared" si="1"/>
-        <v>6.2833333333333332</v>
+        <v>6.8083333333333336</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C117" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D117" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="E117" t="s">
         <v>20</v>
       </c>
       <c r="F117" s="2">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="G117" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L117">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="M117">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="R117" s="1">
         <v>6.8666666666666671</v>
       </c>
       <c r="U117" s="1">
         <f t="shared" si="1"/>
-        <v>6.8083333333333336</v>
+        <v>6.1208333333333336</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C118" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E118" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="2">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="G118" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L118">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="M118">
-        <v>5.75</v>
+        <v>7.75</v>
       </c>
       <c r="R118" s="1">
         <v>6.95</v>
       </c>
       <c r="U118" s="1">
         <f t="shared" si="1"/>
-        <v>6.1624999999999996</v>
+        <v>6.9437499999999996</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C119" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D119" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E119" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="2">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="G119" s="2">
         <v>7.5</v>
       </c>
       <c r="L119">
-        <v>7.75</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M119">
-        <v>7.75</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R119" s="1">
         <v>5.833333333333333</v>
       </c>
       <c r="U119" s="1">
         <f t="shared" si="1"/>
-        <v>6.3854166666666661</v>
+        <v>5.4854166666666657</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C120" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="E120" t="s">
         <v>20</v>
       </c>
       <c r="F120" s="2">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="G120" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="L120">
         <v>7.5</v>
       </c>
-      <c r="L120">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="M120">
-        <v>5.0999999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="R120" s="1">
-        <v>6.1500000000000012</v>
+        <v>6</v>
       </c>
       <c r="U120" s="1">
         <f t="shared" si="1"/>
-        <v>5.6437500000000007</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="C121" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D121" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
         <v>20</v>
       </c>
       <c r="F121" s="2">
-        <v>3.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G121" s="2">
-        <v>7.75</v>
+        <v>5.75</v>
       </c>
       <c r="L121">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="R121" s="1">
-        <v>7.4499999999999993</v>
+        <v>6.1500000000000012</v>
       </c>
       <c r="U121" s="1">
         <f t="shared" si="1"/>
-        <v>7.1</v>
+        <v>5.7750000000000004</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C122" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="E122" t="s">
         <v>20</v>
       </c>
       <c r="F122" s="2">
-        <v>4.3499999999999996</v>
+        <v>4</v>
       </c>
       <c r="G122" s="2">
-        <v>5.75</v>
+        <v>7.25</v>
       </c>
       <c r="L122">
-        <v>4.75</v>
+        <v>8.75</v>
       </c>
       <c r="M122">
-        <v>6.75</v>
+        <v>9.25</v>
       </c>
       <c r="R122" s="1">
-        <v>6.7333333333333334</v>
+        <v>7.4499999999999993</v>
       </c>
       <c r="U122" s="1">
         <f t="shared" si="1"/>
-        <v>6.0666666666666664</v>
+        <v>7.3812499999999996</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C123" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D123" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
         <v>20</v>
       </c>
       <c r="F123" s="2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G123" s="2">
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="L123">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="M123">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="R123" s="1">
-        <v>6.75</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="U123" s="1">
         <f t="shared" si="1"/>
-        <v>7.03125</v>
+        <v>7.0354166666666664</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C124" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D124" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E124" t="s">
         <v>20</v>
       </c>
       <c r="F124" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="G124" s="2">
-        <v>8.75</v>
+        <v>7.25</v>
       </c>
       <c r="L124">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="M124">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="R124" s="1">
-        <v>7.2833333333333323</v>
+        <v>6.75</v>
       </c>
       <c r="U124" s="1">
         <f t="shared" si="1"/>
-        <v>7.3104166666666668</v>
+        <v>7.0625</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C125" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D125" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E125" t="s">
         <v>20</v>
       </c>
       <c r="F125" s="2">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="G125" s="2">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="L125">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="M125">
         <v>9.5</v>
       </c>
       <c r="R125" s="1">
-        <v>7.3</v>
+        <v>7.2833333333333323</v>
       </c>
       <c r="U125" s="1">
         <f t="shared" si="1"/>
-        <v>7.3375000000000004</v>
+        <v>7.1666666666666661</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D126" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
         <v>20</v>
       </c>
       <c r="F126" s="2">
-        <v>3.45</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G126" s="2">
         <v>7.75</v>
       </c>
       <c r="L126">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M126">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="R126" s="1">
-        <v>6.666666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="U126" s="1">
         <f t="shared" si="1"/>
-        <v>6.8583333333333334</v>
+        <v>7.2562499999999996</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C127" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D127" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="E127" t="s">
         <v>20</v>
       </c>
       <c r="F127" s="2">
-        <v>4.8499999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="G127" s="2">
         <v>7.75</v>
       </c>
       <c r="L127">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="M127">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="R127" s="1">
-        <v>6.8166666666666664</v>
+        <v>6.97</v>
       </c>
       <c r="U127" s="1">
         <f t="shared" si="1"/>
-        <v>7.0145833333333334</v>
+        <v>7.0162499999999994</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C128" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D128" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E128" t="s">
         <v>20</v>
       </c>
       <c r="F128" s="2">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G128" s="2">
-        <v>7.75</v>
-      </c>
-      <c r="L128">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="M128">
-        <v>9.25</v>
+        <v>8.25</v>
+      </c>
+      <c r="N128">
+        <v>8.5</v>
       </c>
       <c r="R128" s="1">
-        <v>6.3666666666666671</v>
+        <v>6.67</v>
       </c>
       <c r="U128" s="1">
         <f t="shared" si="1"/>
-        <v>6.7145833333333336</v>
+        <v>6.8475000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C129" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D129" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="E129" t="s">
         <v>20</v>
       </c>
       <c r="F129" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="G129" s="2">
-        <v>7.25</v>
+        <v>7.5</v>
+      </c>
+      <c r="L129">
+        <v>5.85</v>
       </c>
       <c r="M129">
-        <v>8.25</v>
-      </c>
-      <c r="N129">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="R129" s="1">
-        <v>6.6833333333333327</v>
+        <v>6.35</v>
       </c>
       <c r="U129" s="1">
         <f t="shared" si="1"/>
-        <v>6.8541666666666661</v>
+        <v>6.21875</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D130" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E130" t="s">
         <v>20</v>
       </c>
       <c r="F130" s="2">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="G130" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L130">
-        <v>5.85</v>
+        <v>7.25</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R130" s="1">
-        <v>6.6833333333333336</v>
+        <v>6.82</v>
       </c>
       <c r="U130" s="1">
-        <f t="shared" si="1"/>
-        <v>6.385416666666667</v>
+        <f t="shared" ref="U130:U193" si="2">(SUM(F130:Q130)/4+S130/4+R130)/2+T130</f>
+        <v>6.7037500000000003</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E131" t="s">
         <v>20</v>
       </c>
       <c r="F131" s="2">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="G131" s="2">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="L131">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="M131">
         <v>8</v>
       </c>
       <c r="R131" s="1">
-        <v>6.8499999999999988</v>
+        <v>7.27</v>
       </c>
       <c r="U131" s="1">
-        <f t="shared" ref="U131:U194" si="2">(SUM(F131:Q131)/4+S131/4+R131)/2+T131</f>
-        <v>6.71875</v>
+        <f t="shared" si="2"/>
+        <v>7.1349999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C132" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D132" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E132" t="s">
         <v>20</v>
       </c>
       <c r="F132" s="2">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="G132" s="2">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="L132">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="M132">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="R132" s="1">
-        <v>7.7666666666666666</v>
+        <v>6.3666666666666671</v>
       </c>
       <c r="U132" s="1">
         <f t="shared" si="2"/>
-        <v>7.3833333333333329</v>
+        <v>5.9895833333333339</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C133" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D133" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="E133" t="s">
         <v>20</v>
       </c>
       <c r="F133" s="2">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="G133" s="2">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="L133">
-        <v>6.25</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M133">
-        <v>5.6</v>
+        <v>8.25</v>
       </c>
       <c r="R133" s="1">
-        <v>6.5666666666666673</v>
+        <v>6.6833333333333327</v>
       </c>
       <c r="U133" s="1">
         <f t="shared" si="2"/>
-        <v>6.0895833333333336</v>
+        <v>6.5041666666666664</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C134" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D134" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="E134" t="s">
         <v>20</v>
       </c>
       <c r="F134" s="2">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="G134" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="L134">
         <v>7.75</v>
       </c>
-      <c r="L134">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="M134">
-        <v>8.25</v>
+        <v>6.1</v>
       </c>
       <c r="R134" s="1">
-        <v>7.3166666666666664</v>
+        <v>6.6833333333333336</v>
       </c>
       <c r="U134" s="1">
         <f t="shared" si="2"/>
-        <v>6.8208333333333329</v>
+        <v>6.4291666666666671</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C135" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D135" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E135" t="s">
         <v>20</v>
       </c>
       <c r="F135" s="2">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="G135" s="2">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="L135">
         <v>7.75</v>
       </c>
       <c r="M135">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="R135" s="1">
-        <v>7.3500000000000005</v>
+        <v>6.8499999999999988</v>
       </c>
       <c r="U135" s="1">
         <f t="shared" si="2"/>
-        <v>6.7625000000000011</v>
+        <v>7.1437499999999989</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C136" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D136" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="E136" t="s">
         <v>20</v>
       </c>
       <c r="F136" s="2">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G136" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L136">
-        <v>7.75</v>
+        <v>9.25</v>
       </c>
       <c r="M136">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="R136" s="1">
-        <v>6.3500000000000005</v>
+        <v>7.7666666666666666</v>
       </c>
       <c r="U136" s="1">
         <f t="shared" si="2"/>
-        <v>6.8937500000000007</v>
+        <v>7.9458333333333329</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C137" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D137" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E137" t="s">
         <v>20</v>
       </c>
       <c r="F137" s="2">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="G137" s="2">
         <v>8</v>
       </c>
       <c r="L137">
-        <v>9.25</v>
+        <v>6.5</v>
       </c>
       <c r="M137">
-        <v>9.75</v>
+        <v>6.75</v>
       </c>
       <c r="R137" s="1">
-        <v>6.1499999999999995</v>
+        <v>6.5666666666666673</v>
       </c>
       <c r="U137" s="1">
         <f t="shared" si="2"/>
-        <v>7.1374999999999993</v>
+        <v>6.4020833333333336</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D138" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E138" t="s">
         <v>20</v>
       </c>
       <c r="F138" s="2">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G138" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L138">
+        <v>9.25</v>
+      </c>
+      <c r="M138">
         <v>8</v>
       </c>
-      <c r="L138">
-        <v>6.5</v>
-      </c>
-      <c r="M138">
-        <v>6.75</v>
-      </c>
       <c r="R138" s="1">
-        <v>7.0999999999999988</v>
+        <v>7.3166666666666664</v>
       </c>
       <c r="U138" s="1">
         <f t="shared" si="2"/>
-        <v>6.6687499999999993</v>
+        <v>7.3895833333333334</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D139" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="E139" t="s">
         <v>20</v>
       </c>
       <c r="F139" s="2">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G139" s="2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L139">
-        <v>9.25</v>
+        <v>7.25</v>
       </c>
       <c r="M139">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="R139" s="1">
-        <v>6.9499999999999993</v>
+        <v>7.3500000000000005</v>
       </c>
       <c r="U139" s="1">
         <f t="shared" si="2"/>
-        <v>7.2062499999999998</v>
+        <v>7.3125</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D140" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="E140" t="s">
         <v>20</v>
       </c>
       <c r="F140" s="2">
-        <v>5.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="G140" s="2">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="L140">
+        <v>6.5</v>
+      </c>
+      <c r="M140">
         <v>7.25</v>
       </c>
-      <c r="M140">
-        <v>8.75</v>
-      </c>
       <c r="R140" s="1">
-        <v>6.8</v>
+        <v>6.1499999999999995</v>
       </c>
       <c r="U140" s="1">
         <f t="shared" si="2"/>
-        <v>7.0374999999999996</v>
+        <v>6.0124999999999993</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C141" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D141" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E141" t="s">
         <v>20</v>
       </c>
       <c r="F141" s="2">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="G141" s="2">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="L141">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M141">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="R141" s="1">
-        <v>7.25</v>
+        <v>7.0999999999999988</v>
       </c>
       <c r="U141" s="1">
         <f t="shared" si="2"/>
-        <v>6.5625</v>
+        <v>6.7999999999999989</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C142" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D142" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E142" t="s">
         <v>20</v>
       </c>
       <c r="F142" s="2">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="G142" s="2">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="L142">
-        <v>6</v>
+        <v>7.25</v>
       </c>
       <c r="M142">
-        <v>7.75</v>
+        <v>8.75</v>
       </c>
       <c r="R142" s="1">
-        <v>6.166666666666667</v>
+        <v>6.9499999999999993</v>
       </c>
       <c r="U142" s="1">
         <f t="shared" si="2"/>
-        <v>6.3333333333333339</v>
+        <v>6.78125</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C143" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D143" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E143" t="s">
         <v>20</v>
       </c>
       <c r="F143" s="2">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="G143" s="2">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="L143">
-        <v>7.25</v>
+        <v>6.6</v>
       </c>
       <c r="M143">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="R143" s="1">
-        <v>6.95</v>
+        <v>6.8</v>
       </c>
       <c r="U143" s="1">
         <f t="shared" si="2"/>
-        <v>6.78125</v>
+        <v>6.6937499999999996</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C144" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D144" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E144" t="s">
         <v>20</v>
       </c>
       <c r="F144" s="2">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="G144" s="2">
-        <v>8</v>
-      </c>
-      <c r="L144">
-        <v>6.6</v>
+        <v>7.75</v>
+      </c>
+      <c r="H144">
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="R144" s="1">
-        <v>6.5500000000000007</v>
+        <v>7.25</v>
       </c>
       <c r="U144" s="1">
         <f t="shared" si="2"/>
-        <v>6.5687500000000005</v>
+        <v>6.9375</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C145" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D145" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E145" t="s">
         <v>20</v>
       </c>
       <c r="F145" s="2">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="G145" s="2">
         <v>7.75</v>
       </c>
-      <c r="H145">
-        <v>4</v>
+      <c r="L145">
+        <v>5.25</v>
       </c>
       <c r="M145">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="R145" s="1">
-        <v>6.6833333333333327</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="U145" s="1">
         <f t="shared" si="2"/>
-        <v>6.6541666666666668</v>
+        <v>6.2833333333333332</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C146" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D146" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E146" t="s">
         <v>20</v>
       </c>
       <c r="F146" s="2">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="G146" s="2">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="L146">
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
       <c r="M146">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="R146" s="1">
-        <v>6</v>
+        <v>6.95</v>
       </c>
       <c r="U146" s="1">
         <f t="shared" si="2"/>
-        <v>6.2</v>
+        <v>6.875</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C147" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D147" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="E147" t="s">
         <v>20</v>
@@ -7771,280 +7786,280 @@
         <v>7.25</v>
       </c>
       <c r="M147">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="R147" s="1">
-        <v>6.9666666666666677</v>
+        <v>6.5500000000000007</v>
       </c>
       <c r="U147" s="1">
         <f t="shared" si="2"/>
-        <v>6.8833333333333346</v>
+        <v>6.7875000000000005</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C148" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D148" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="E148" t="s">
         <v>20</v>
       </c>
       <c r="F148" s="2">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G148" s="2">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="L148">
         <v>7.25</v>
       </c>
       <c r="M148">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="R148" s="1">
-        <v>6.8166666666666664</v>
+        <v>6.6833333333333327</v>
       </c>
       <c r="U148" s="1">
         <f t="shared" si="2"/>
-        <v>6.9208333333333334</v>
+        <v>6.7166666666666668</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C149" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D149" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="F149" s="2">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="G149" s="2">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="L149">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="M149">
-        <v>8.75</v>
+        <v>7.75</v>
       </c>
       <c r="R149" s="1">
-        <v>6.1333333333333329</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="U149" s="1">
         <f t="shared" si="2"/>
-        <v>6.4416666666666664</v>
+        <v>6.8125</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C150" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D150" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E150" t="s">
         <v>133</v>
       </c>
       <c r="F150" s="2">
-        <v>2.85</v>
+        <v>4.5</v>
       </c>
       <c r="G150" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L150">
+        <v>9.75</v>
+      </c>
+      <c r="M150">
         <v>8</v>
       </c>
-      <c r="L150">
-        <v>7.5</v>
-      </c>
-      <c r="M150">
-        <v>7.75</v>
-      </c>
       <c r="R150" s="1">
-        <v>7</v>
+        <v>7.0666666666666664</v>
       </c>
       <c r="U150" s="1">
         <f t="shared" si="2"/>
-        <v>6.7625000000000002</v>
+        <v>7.3770833333333332</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C151" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D151" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E151" t="s">
         <v>133</v>
       </c>
       <c r="F151" s="2">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="G151" s="2">
+        <v>7</v>
+      </c>
+      <c r="N151">
         <v>8.5</v>
       </c>
-      <c r="L151">
-        <v>9.75</v>
-      </c>
-      <c r="M151">
-        <v>8</v>
+      <c r="P151">
+        <v>8.5</v>
       </c>
       <c r="R151" s="1">
-        <v>7.1000000000000005</v>
+        <v>6.8166666666666664</v>
       </c>
       <c r="U151" s="1">
         <f t="shared" si="2"/>
-        <v>7.3937500000000007</v>
+        <v>6.7895833333333329</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C152" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D152" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="E152" t="s">
         <v>133</v>
       </c>
       <c r="F152" s="2">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="G152" s="2">
-        <v>7</v>
-      </c>
-      <c r="N152">
-        <v>8.5</v>
-      </c>
-      <c r="P152">
-        <v>8.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="L152">
+        <v>7.1</v>
+      </c>
+      <c r="M152">
+        <v>7.5</v>
       </c>
       <c r="R152" s="1">
-        <v>7.0666666666666664</v>
+        <v>7.2833333333333341</v>
       </c>
       <c r="U152" s="1">
         <f t="shared" si="2"/>
-        <v>6.9145833333333329</v>
+        <v>6.9041666666666668</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C153" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D153" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E153" t="s">
         <v>133</v>
       </c>
       <c r="F153" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G153" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L153">
-        <v>7.1</v>
-      </c>
-      <c r="M153">
-        <v>7.5</v>
+        <v>7.25</v>
+      </c>
+      <c r="N153">
+        <v>7.75</v>
+      </c>
+      <c r="P153">
+        <v>9.75</v>
       </c>
       <c r="R153" s="1">
-        <v>6.8166666666666664</v>
+        <v>6.2833333333333341</v>
       </c>
       <c r="U153" s="1">
         <f t="shared" si="2"/>
-        <v>6.6708333333333334</v>
+        <v>6.6729166666666675</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D154" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E154" t="s">
         <v>133</v>
       </c>
       <c r="F154" s="2">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="G154" s="2">
-        <v>7.25</v>
-      </c>
-      <c r="N154">
-        <v>7.75</v>
+        <v>4.25</v>
+      </c>
+      <c r="M154">
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>9.75</v>
+        <v>6.45</v>
       </c>
       <c r="R154" s="1">
-        <v>7.2833333333333341</v>
+        <v>5.5</v>
       </c>
       <c r="U154" s="1">
         <f t="shared" si="2"/>
-        <v>7.1729166666666675</v>
+        <v>5.0562500000000004</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C155" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D155" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E155" t="s">
         <v>133</v>
@@ -8053,2842 +8068,2842 @@
         <v>3.75</v>
       </c>
       <c r="G155" s="2">
-        <v>4.25</v>
+        <v>6.25</v>
+      </c>
+      <c r="L155">
+        <v>8</v>
       </c>
       <c r="M155">
-        <v>4</v>
-      </c>
-      <c r="P155">
-        <v>6.45</v>
+        <v>7.5</v>
       </c>
       <c r="R155" s="1">
-        <v>6.2833333333333341</v>
+        <v>7</v>
       </c>
       <c r="U155" s="1">
         <f t="shared" si="2"/>
-        <v>5.447916666666667</v>
+        <v>6.6875</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C156" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D156" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="E156" t="s">
         <v>133</v>
       </c>
       <c r="F156" s="2">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="G156" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="L156">
-        <v>8</v>
-      </c>
-      <c r="M156">
         <v>7.5</v>
       </c>
+      <c r="N156">
+        <v>8.25</v>
+      </c>
+      <c r="P156">
+        <v>9.5</v>
+      </c>
       <c r="R156" s="1">
-        <v>5.5</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="U156" s="1">
         <f t="shared" si="2"/>
-        <v>5.9375</v>
+        <v>7.2520833333333332</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C157" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D157" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="E157" t="s">
         <v>133</v>
       </c>
       <c r="F157" s="2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G157" s="2">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>8.25</v>
+        <v>6.25</v>
       </c>
       <c r="P157">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="R157" s="1">
-        <v>7.416666666666667</v>
+        <v>6.3166666666666664</v>
       </c>
       <c r="U157" s="1">
         <f t="shared" si="2"/>
-        <v>7.2520833333333332</v>
+        <v>5.9395833333333332</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C158" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D158" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="E158" t="s">
         <v>133</v>
       </c>
       <c r="F158" s="2">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="G158" s="2">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N158">
-        <v>6.25</v>
+        <v>8.5</v>
       </c>
       <c r="P158">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="R158" s="1">
-        <v>6.3166666666666664</v>
+        <v>6.2166666666666677</v>
       </c>
       <c r="U158" s="1">
         <f t="shared" si="2"/>
-        <v>5.9395833333333332</v>
+        <v>6.7020833333333343</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C159" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D159" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E159" t="s">
         <v>133</v>
       </c>
       <c r="F159" s="2">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="G159" s="2">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="N159">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="P159">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="R159" s="1">
-        <v>6.2166666666666677</v>
+        <v>5.6499999999999995</v>
       </c>
       <c r="U159" s="1">
         <f t="shared" si="2"/>
-        <v>6.7020833333333343</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C160" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D160" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="E160" t="s">
         <v>133</v>
       </c>
       <c r="F160" s="2">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="G160" s="2">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="N160">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="P160">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="R160" s="1">
-        <v>5.6499999999999995</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="U160" s="1">
         <f t="shared" si="2"/>
-        <v>5.65</v>
+        <v>6.8458333333333332</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C161" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D161" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E161" t="s">
         <v>133</v>
       </c>
       <c r="F161" s="2">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="G161" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="N161">
-        <v>8.5</v>
+        <v>5</v>
+      </c>
+      <c r="M161">
+        <v>5.25</v>
       </c>
       <c r="P161">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="R161" s="1">
-        <v>6.666666666666667</v>
+        <v>6.6333333333333329</v>
       </c>
       <c r="U161" s="1">
         <f t="shared" si="2"/>
-        <v>6.8458333333333332</v>
+        <v>6.3166666666666664</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C162" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D162" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="E162" t="s">
         <v>133</v>
       </c>
       <c r="F162" s="2">
-        <v>4.5</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G162" s="2">
-        <v>5</v>
+        <v>6.25</v>
+      </c>
+      <c r="L162">
+        <v>3.95</v>
       </c>
       <c r="M162">
-        <v>5.25</v>
-      </c>
-      <c r="P162">
-        <v>9.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="R162" s="1">
-        <v>6.6333333333333329</v>
+        <v>6.5333333333333341</v>
       </c>
       <c r="U162" s="1">
         <f t="shared" si="2"/>
-        <v>6.3166666666666664</v>
+        <v>5.3916666666666675</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C163" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D163" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="E163" t="s">
         <v>133</v>
       </c>
       <c r="F163" s="2">
-        <v>2.4500000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="G163" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="L163">
-        <v>3.95</v>
-      </c>
-      <c r="M163">
-        <v>4.3499999999999996</v>
+        <v>7.25</v>
+      </c>
+      <c r="N163">
+        <v>7.75</v>
+      </c>
+      <c r="P163">
+        <v>8.75</v>
       </c>
       <c r="R163" s="1">
-        <v>6.5333333333333341</v>
+        <v>6.5999999999999988</v>
       </c>
       <c r="U163" s="1">
         <f t="shared" si="2"/>
-        <v>5.3916666666666675</v>
+        <v>6.65625</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C164" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D164" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="E164" t="s">
         <v>133</v>
       </c>
       <c r="F164" s="2">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="G164" s="2">
-        <v>7.25</v>
-      </c>
-      <c r="N164">
-        <v>7.75</v>
+        <v>3.5</v>
+      </c>
+      <c r="M164">
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>8.75</v>
+        <v>6.35</v>
       </c>
       <c r="R164" s="1">
-        <v>6.5999999999999988</v>
+        <v>5.95</v>
       </c>
       <c r="U164" s="1">
         <f t="shared" si="2"/>
-        <v>6.65625</v>
+        <v>4.90625</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C165" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D165" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E165" t="s">
         <v>133</v>
       </c>
       <c r="F165" s="2">
-        <v>1.85</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G165" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="M165">
-        <v>3.75</v>
+        <v>7</v>
+      </c>
+      <c r="N165">
+        <v>8.5</v>
       </c>
       <c r="P165">
-        <v>6.35</v>
+        <v>8.75</v>
       </c>
       <c r="R165" s="1">
-        <v>5.25</v>
+        <v>7.3499999999999988</v>
       </c>
       <c r="U165" s="1">
         <f t="shared" si="2"/>
-        <v>4.5562500000000004</v>
+        <v>7.21875</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C166" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D166" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E166" t="s">
         <v>133</v>
       </c>
       <c r="F166" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="G166" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="N166">
+        <v>6</v>
+      </c>
+      <c r="P166">
         <v>7</v>
       </c>
-      <c r="N166">
-        <v>8.5</v>
-      </c>
-      <c r="P166">
-        <v>8.75</v>
-      </c>
       <c r="R166" s="1">
-        <v>5.95</v>
+        <v>5.8</v>
       </c>
       <c r="U166" s="1">
         <f t="shared" si="2"/>
-        <v>6.5187500000000007</v>
+        <v>5.6437499999999998</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C167" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D167" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E167" t="s">
         <v>133</v>
       </c>
       <c r="F167" s="2">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G167" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="N167">
-        <v>6</v>
-      </c>
-      <c r="P167">
-        <v>7</v>
+        <v>7.75</v>
+      </c>
+      <c r="L167">
+        <v>6.25</v>
+      </c>
+      <c r="M167">
+        <v>7.1</v>
       </c>
       <c r="R167" s="1">
-        <v>7.3499999999999988</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="U167" s="1">
         <f t="shared" si="2"/>
-        <v>6.4187499999999993</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="C168" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D168" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="E168" t="s">
         <v>133</v>
       </c>
       <c r="F168" s="2">
-        <v>4.0999999999999996</v>
+        <v>2.95</v>
       </c>
       <c r="G168" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N168">
         <v>7.75</v>
       </c>
-      <c r="L168">
-        <v>6.25</v>
-      </c>
-      <c r="M168">
-        <v>7.1</v>
+      <c r="P168">
+        <v>8.25</v>
       </c>
       <c r="R168" s="1">
-        <v>7.6166666666666671</v>
+        <v>6.13</v>
       </c>
       <c r="U168" s="1">
         <f t="shared" si="2"/>
-        <v>6.9583333333333339</v>
+        <v>6.1212499999999999</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C169" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D169" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E169" t="s">
         <v>133</v>
       </c>
       <c r="F169" s="2">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="G169" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="N169">
-        <v>7.75</v>
+        <v>8.5</v>
+      </c>
+      <c r="M169">
+        <v>4.75</v>
       </c>
       <c r="P169">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="R169" s="1">
-        <v>5.8</v>
+        <v>7.6166666666666671</v>
       </c>
       <c r="U169" s="1">
         <f t="shared" si="2"/>
-        <v>5.9562499999999998</v>
+        <v>7.0208333333333339</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C170" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D170" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="E170" t="s">
         <v>133</v>
       </c>
       <c r="F170" s="2">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G170" s="2">
-        <v>8.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L170">
+        <v>6</v>
       </c>
       <c r="M170">
-        <v>4.75</v>
-      </c>
-      <c r="P170">
-        <v>8.75</v>
+        <v>5.25</v>
       </c>
       <c r="R170" s="1">
-        <v>6.8999999999999995</v>
+        <v>6.33</v>
       </c>
       <c r="U170" s="1">
         <f t="shared" si="2"/>
-        <v>6.6624999999999996</v>
+        <v>5.82125</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>367</v>
+      </c>
+      <c r="C171" t="s">
+        <v>614</v>
+      </c>
+      <c r="D171" t="s">
         <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>368</v>
-      </c>
-      <c r="C171" t="s">
-        <v>615</v>
-      </c>
-      <c r="D171" t="s">
-        <v>191</v>
       </c>
       <c r="E171" t="s">
         <v>133</v>
       </c>
       <c r="F171" s="2">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G171" s="2">
         <v>6.5</v>
       </c>
-      <c r="L171">
-        <v>6</v>
-      </c>
-      <c r="M171">
-        <v>5.25</v>
+      <c r="N171">
+        <v>8.5</v>
+      </c>
+      <c r="P171">
+        <v>9.5</v>
       </c>
       <c r="R171" s="1">
-        <v>7.1833333333333336</v>
+        <v>7.18</v>
       </c>
       <c r="U171" s="1">
         <f t="shared" si="2"/>
-        <v>6.2479166666666668</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C172" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D172" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="E172" t="s">
         <v>133</v>
       </c>
       <c r="F172" s="2">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="G172" s="2">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
       <c r="N172">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="P172">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="R172" s="1">
-        <v>6.333333333333333</v>
+        <v>6.02</v>
       </c>
       <c r="U172" s="1">
         <f t="shared" si="2"/>
-        <v>6.6166666666666671</v>
+        <v>6.1349999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C173" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D173" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E173" t="s">
         <v>133</v>
       </c>
       <c r="F173" s="2">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="G173" s="2">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="N173">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="P173">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="R173" s="1">
         <v>6.0166666666666657</v>
       </c>
       <c r="U173" s="1">
         <f t="shared" si="2"/>
-        <v>6.1333333333333329</v>
+        <v>6.2583333333333329</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C174" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D174" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E174" t="s">
         <v>133</v>
       </c>
       <c r="F174" s="2">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="G174" s="2">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
       <c r="N174">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="P174">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="R174" s="1">
         <v>6.3</v>
       </c>
       <c r="U174" s="1">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>6.2125000000000004</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C175" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D175" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="E175" t="s">
         <v>133</v>
       </c>
       <c r="F175" s="2">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G175" s="2">
-        <v>4.25</v>
+        <v>7</v>
       </c>
       <c r="N175">
+        <v>9.25</v>
+      </c>
+      <c r="P175">
         <v>8.75</v>
-      </c>
-      <c r="P175">
-        <v>9</v>
       </c>
       <c r="R175" s="1">
         <v>7.0666666666666664</v>
       </c>
       <c r="U175" s="1">
         <f t="shared" si="2"/>
-        <v>6.5958333333333332</v>
+        <v>7.0958333333333332</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C176" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D176" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="E176" t="s">
         <v>133</v>
       </c>
       <c r="F176" s="2">
-        <v>3.5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G176" s="2">
-        <v>7</v>
-      </c>
-      <c r="N176">
-        <v>9.25</v>
-      </c>
-      <c r="P176">
-        <v>8.75</v>
+        <v>8.5</v>
+      </c>
+      <c r="L176">
+        <v>9.75</v>
+      </c>
+      <c r="M176">
+        <v>10</v>
       </c>
       <c r="R176" s="1">
         <v>7.8999999999999995</v>
       </c>
       <c r="U176" s="1">
         <f t="shared" si="2"/>
-        <v>7.5124999999999993</v>
+        <v>8.0250000000000004</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C177" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D177" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="E177" t="s">
         <v>133</v>
       </c>
       <c r="F177" s="2">
-        <v>4.3499999999999996</v>
+        <v>5.25</v>
       </c>
       <c r="G177" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="L177">
-        <v>9.75</v>
+        <v>7.75</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
       </c>
       <c r="M177">
-        <v>10</v>
+        <v>7.75</v>
       </c>
       <c r="R177" s="1">
         <v>7.333333333333333</v>
       </c>
       <c r="U177" s="1">
         <f t="shared" si="2"/>
-        <v>7.7416666666666671</v>
+        <v>6.5104166666666661</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C178" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D178" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E178" t="s">
         <v>133</v>
       </c>
       <c r="F178" s="2">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="G178" s="2">
-        <v>7.75</v>
-      </c>
-      <c r="H178">
-        <v>2</v>
-      </c>
-      <c r="M178">
-        <v>7.75</v>
+        <v>6.75</v>
+      </c>
+      <c r="N178">
+        <v>8.5</v>
+      </c>
+      <c r="P178">
+        <v>8.75</v>
       </c>
       <c r="R178" s="1">
-        <v>7.166666666666667</v>
+        <v>7.4666666666666677</v>
       </c>
       <c r="U178" s="1">
         <f t="shared" si="2"/>
-        <v>6.4270833333333339</v>
+        <v>7.2958333333333343</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C179" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E179" t="s">
         <v>133</v>
       </c>
       <c r="F179" s="2">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G179" s="2">
-        <v>6.75</v>
+        <v>8.25</v>
       </c>
       <c r="N179">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="P179">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="R179" s="1">
-        <v>7.4666666666666677</v>
+        <v>7.17</v>
       </c>
       <c r="U179" s="1">
         <f t="shared" si="2"/>
-        <v>7.2958333333333343</v>
+        <v>7.2537500000000001</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C180" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D180" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E180" t="s">
         <v>133</v>
       </c>
       <c r="F180" s="2">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G180" s="2">
-        <v>8.25</v>
-      </c>
-      <c r="N180">
-        <v>8</v>
+        <v>6.5</v>
+      </c>
+      <c r="M180">
+        <v>5.0999999999999996</v>
       </c>
       <c r="P180">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="R180" s="1">
         <v>6.1833333333333327</v>
       </c>
       <c r="U180" s="1">
         <f t="shared" si="2"/>
-        <v>6.7604166666666661</v>
+        <v>6.1479166666666663</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C181" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D181" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="E181" t="s">
         <v>133</v>
       </c>
       <c r="F181" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G181" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="M181">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
+      </c>
+      <c r="N181">
+        <v>5</v>
       </c>
       <c r="P181">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="R181" s="1">
         <v>6.75</v>
       </c>
       <c r="U181" s="1">
         <f t="shared" si="2"/>
-        <v>6.4312500000000004</v>
+        <v>6.2625000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C182" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D182" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="E182" t="s">
         <v>133</v>
       </c>
       <c r="F182" s="2">
-        <v>4.3499999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="G182" s="2">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="N182">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="P182">
-        <v>8.25</v>
+        <v>6.35</v>
       </c>
       <c r="R182" s="1">
         <v>6.2833333333333341</v>
       </c>
       <c r="U182" s="1">
         <f t="shared" si="2"/>
-        <v>6.0291666666666668</v>
+        <v>5.6854166666666668</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C183" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D183" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="E183" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F183" s="2">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G183" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="N183">
-        <v>4.25</v>
+        <v>7</v>
+      </c>
+      <c r="M183">
+        <v>5.75</v>
       </c>
       <c r="P183">
-        <v>6.35</v>
+        <v>9</v>
       </c>
       <c r="R183" s="1">
-        <v>6.0166666666666666</v>
+        <v>6.0500000000000007</v>
       </c>
       <c r="U183" s="1">
         <f t="shared" si="2"/>
-        <v>5.5520833333333339</v>
+        <v>6.1625000000000005</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C184" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D184" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="E184" t="s">
         <v>175</v>
       </c>
       <c r="F184" s="2">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G184" s="2">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M184">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="P184">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="R184" s="1">
-        <v>6.0500000000000007</v>
+        <v>5.8166666666666664</v>
       </c>
       <c r="U184" s="1">
         <f t="shared" si="2"/>
-        <v>6.1625000000000005</v>
+        <v>5.8770833333333332</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C185" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D185" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E185" t="s">
         <v>175</v>
       </c>
       <c r="F185" s="2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G185" s="2">
         <v>5.5</v>
       </c>
       <c r="M185">
-        <v>6.25</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="P185">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R185" s="1">
-        <v>5.8166666666666664</v>
+        <v>6.1166666666666671</v>
       </c>
       <c r="U185" s="1">
         <f t="shared" si="2"/>
-        <v>5.8770833333333332</v>
+        <v>5.9145833333333337</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C186" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D186" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E186" t="s">
         <v>175</v>
       </c>
       <c r="F186" s="2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G186" s="2">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="M186">
-        <v>4.8499999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P186">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="R186" s="1">
         <v>5.9666666666666659</v>
       </c>
       <c r="U186" s="1">
         <f t="shared" si="2"/>
-        <v>5.8395833333333336</v>
+        <v>5.6833333333333336</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C187" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D187" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="E187" t="s">
         <v>175</v>
       </c>
       <c r="F187" s="2">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="G187" s="2">
         <v>5.25</v>
       </c>
       <c r="M187">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="P187">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="R187" s="1">
         <v>5.833333333333333</v>
       </c>
       <c r="U187" s="1">
         <f t="shared" si="2"/>
-        <v>5.6166666666666671</v>
+        <v>5.6916666666666664</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C188" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D188" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E188" t="s">
         <v>175</v>
       </c>
       <c r="F188" s="2">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="G188" s="2">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
       <c r="M188">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P188">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="R188" s="1">
         <v>5.4833333333333334</v>
       </c>
       <c r="U188" s="1">
         <f t="shared" si="2"/>
-        <v>5.5166666666666666</v>
+        <v>5.5416666666666661</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D189" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="E189" t="s">
         <v>175</v>
       </c>
       <c r="F189" s="2">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G189" s="2">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="M189">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P189">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="R189" s="1">
-        <v>6.1166666666666671</v>
+        <v>7</v>
       </c>
       <c r="U189" s="1">
         <f t="shared" si="2"/>
-        <v>5.8583333333333334</v>
+        <v>6.3562500000000002</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C190" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D190" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="E190" t="s">
         <v>175</v>
       </c>
       <c r="F190" s="2">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="G190" s="2">
-        <v>7.25</v>
+        <v>6</v>
+      </c>
+      <c r="L190">
+        <v>5.25</v>
       </c>
       <c r="M190">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P190">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="R190" s="1">
-        <v>7</v>
+        <v>5.9666666666666659</v>
       </c>
       <c r="U190" s="1">
         <f t="shared" si="2"/>
-        <v>6.3562500000000002</v>
+        <v>5.6395833333333325</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C191" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D191" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="E191" t="s">
         <v>175</v>
       </c>
       <c r="F191" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G191" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L191">
-        <v>5.25</v>
+        <v>8.25</v>
       </c>
       <c r="M191">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="R191" s="1">
-        <v>5.9666666666666659</v>
+        <v>7.6166666666666671</v>
       </c>
       <c r="U191" s="1">
         <f t="shared" si="2"/>
-        <v>5.6395833333333325</v>
+        <v>7.6208333333333336</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C192" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D192" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E192" t="s">
         <v>175</v>
       </c>
       <c r="F192" s="2">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="G192" s="2">
-        <v>9</v>
+        <v>7.25</v>
       </c>
       <c r="L192">
-        <v>8.25</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M192">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="R192" s="1">
-        <v>7.6166666666666671</v>
+        <v>5.7666666666666657</v>
       </c>
       <c r="U192" s="1">
         <f t="shared" si="2"/>
-        <v>7.6208333333333336</v>
+        <v>5.9708333333333332</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C193" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D193" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="E193" t="s">
         <v>175</v>
       </c>
       <c r="F193" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="G193" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="M193">
         <v>3.6</v>
       </c>
-      <c r="G193" s="2">
-        <v>7.25</v>
-      </c>
-      <c r="L193">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M193">
-        <v>9.25</v>
+      <c r="P193">
+        <v>8</v>
       </c>
       <c r="R193" s="1">
-        <v>5.7666666666666657</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="U193" s="1">
         <f t="shared" si="2"/>
-        <v>5.9708333333333332</v>
+        <v>5.6895833333333332</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C194" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D194" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="E194" t="s">
         <v>175</v>
       </c>
       <c r="F194" s="2">
-        <v>2.35</v>
+        <v>3.45</v>
       </c>
       <c r="G194" s="2">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="M194">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="P194">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="R194" s="1">
-        <v>6.2666666666666666</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="U194" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6895833333333332</v>
+        <f t="shared" ref="U194:U244" si="3">(SUM(F194:Q194)/4+S194/4+R194)/2+T194</f>
+        <v>5.2666666666666657</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C195" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D195" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="E195" t="s">
         <v>175</v>
       </c>
       <c r="F195" s="2">
-        <v>3.45</v>
+        <v>1.2</v>
       </c>
       <c r="G195" s="2">
-        <v>4.75</v>
+        <v>7.75</v>
       </c>
       <c r="M195">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="P195">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="R195" s="1">
-        <v>5.583333333333333</v>
+        <v>6.05</v>
       </c>
       <c r="U195" s="1">
-        <f t="shared" ref="U195:U245" si="3">(SUM(F195:Q195)/4+S195/4+R195)/2+T195</f>
-        <v>5.2666666666666657</v>
+        <f t="shared" si="3"/>
+        <v>5.7374999999999998</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C196" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D196" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E196" t="s">
         <v>175</v>
       </c>
       <c r="F196" s="2">
-        <v>1.2</v>
+        <v>4.75</v>
       </c>
       <c r="G196" s="2">
         <v>7.75</v>
       </c>
       <c r="M196">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="P196">
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="R196" s="1">
-        <v>6.05</v>
+        <v>6.9666666666666659</v>
       </c>
       <c r="U196" s="1">
         <f t="shared" si="3"/>
-        <v>5.7374999999999998</v>
+        <v>6.7770833333333336</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C197" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D197" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="E197" t="s">
         <v>175</v>
       </c>
       <c r="F197" s="2">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="G197" s="2">
-        <v>7.75</v>
+        <v>4.25</v>
       </c>
       <c r="M197">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="P197">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="R197" s="1">
-        <v>6.9666666666666659</v>
+        <v>5.9666666666666659</v>
       </c>
       <c r="U197" s="1">
         <f t="shared" si="3"/>
-        <v>6.7770833333333336</v>
+        <v>5.3208333333333329</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C198" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D198" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E198" t="s">
         <v>175</v>
       </c>
       <c r="F198" s="2">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="G198" s="2">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="M198">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
         <v>8.5</v>
       </c>
       <c r="R198" s="1">
-        <v>5.9666666666666659</v>
+        <v>6.2333333333333334</v>
       </c>
       <c r="U198" s="1">
         <f t="shared" si="3"/>
-        <v>5.3208333333333329</v>
+        <v>5.9916666666666671</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C199" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D199" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E199" t="s">
         <v>175</v>
       </c>
       <c r="F199" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G199" s="2">
         <v>5.75</v>
       </c>
-      <c r="G199" s="2">
-        <v>5</v>
-      </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P199">
         <v>8.5</v>
       </c>
       <c r="R199" s="1">
-        <v>6.2333333333333334</v>
+        <v>5.8</v>
       </c>
       <c r="U199" s="1">
         <f t="shared" si="3"/>
-        <v>5.9916666666666671</v>
+        <v>6.3687500000000004</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C200" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="E200" t="s">
         <v>175</v>
       </c>
       <c r="F200" s="2">
-        <v>6.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G200" s="2">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="M200">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P200">
-        <v>8.5</v>
+        <v>7.75</v>
       </c>
       <c r="R200" s="1">
-        <v>5.8</v>
+        <v>5.5166666666666657</v>
       </c>
       <c r="U200" s="1">
         <f t="shared" si="3"/>
-        <v>6.3687500000000004</v>
+        <v>5.489583333333333</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D201" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="E201" t="s">
         <v>175</v>
       </c>
       <c r="F201" s="2">
-        <v>5.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="G201" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="M201">
         <v>5.25</v>
       </c>
-      <c r="M201">
-        <v>3.75</v>
-      </c>
       <c r="P201">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="R201" s="1">
-        <v>5.5166666666666657</v>
+        <v>7.0999999999999988</v>
       </c>
       <c r="U201" s="1">
         <f t="shared" si="3"/>
-        <v>5.489583333333333</v>
+        <v>6.6749999999999989</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C202" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D202" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="E202" t="s">
         <v>175</v>
       </c>
       <c r="F202" s="2">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G202" s="2">
-        <v>7.25</v>
+        <v>5.75</v>
       </c>
       <c r="M202">
-        <v>5.25</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P202">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="R202" s="1">
-        <v>7.0999999999999988</v>
+        <v>5.7833333333333323</v>
       </c>
       <c r="U202" s="1">
         <f t="shared" si="3"/>
-        <v>6.6749999999999989</v>
+        <v>5.4916666666666654</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C203" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D203" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E203" t="s">
         <v>175</v>
       </c>
       <c r="F203" s="2">
-        <v>3.85</v>
+        <v>6.25</v>
       </c>
       <c r="G203" s="2">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="M203">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="P203">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="R203" s="1">
-        <v>5.7833333333333323</v>
+        <v>6.7</v>
       </c>
       <c r="U203" s="1">
         <f t="shared" si="3"/>
-        <v>5.4916666666666654</v>
+        <v>6.9437499999999996</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C204" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D204" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E204" t="s">
         <v>175</v>
       </c>
       <c r="F204" s="2">
-        <v>6.25</v>
+        <v>2</v>
       </c>
       <c r="G204" s="2">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="M204">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="P204">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="R204" s="1">
-        <v>6.7</v>
+        <v>5.3166666666666673</v>
       </c>
       <c r="U204" s="1">
         <f t="shared" si="3"/>
-        <v>6.9437499999999996</v>
+        <v>4.7145833333333336</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C205" t="s">
-        <v>649</v>
+        <v>480</v>
       </c>
       <c r="D205" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E205" t="s">
         <v>175</v>
       </c>
       <c r="F205" s="2">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="G205" s="2">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="M205">
-        <v>2.6</v>
+        <v>8.25</v>
       </c>
       <c r="P205">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="R205" s="1">
-        <v>5.3166666666666673</v>
+        <v>7.3666666666666663</v>
       </c>
       <c r="U205" s="1">
         <f t="shared" si="3"/>
-        <v>4.7145833333333336</v>
+        <v>7.5583333333333336</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C206" t="s">
-        <v>481</v>
+        <v>648</v>
       </c>
       <c r="D206" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="E206" t="s">
         <v>175</v>
       </c>
       <c r="F206" s="2">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="G206" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M206">
-        <v>8.25</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="R206" s="1">
-        <v>7.3666666666666663</v>
+        <v>5.8499999999999988</v>
       </c>
       <c r="U206" s="1">
         <f t="shared" si="3"/>
-        <v>7.5583333333333336</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C207" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D207" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="E207" t="s">
         <v>175</v>
       </c>
       <c r="F207" s="2">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="G207" s="2">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M207">
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="P207">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="R207" s="1">
-        <v>5.8499999999999988</v>
+        <v>5.9833333333333334</v>
       </c>
       <c r="U207" s="1">
         <f t="shared" si="3"/>
-        <v>5.375</v>
+        <v>6.3979166666666671</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C208" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D208" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="E208" t="s">
         <v>175</v>
       </c>
       <c r="F208" s="2">
-        <v>4.75</v>
+        <v>2.35</v>
       </c>
       <c r="G208" s="2">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M208">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="P208">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="R208" s="1">
-        <v>5.9833333333333334</v>
+        <v>6.3166666666666664</v>
       </c>
       <c r="U208" s="1">
         <f t="shared" si="3"/>
-        <v>6.3979166666666671</v>
+        <v>5.7645833333333334</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C209" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D209" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="E209" t="s">
         <v>175</v>
       </c>
       <c r="F209" s="2">
-        <v>2.35</v>
+        <v>2.85</v>
       </c>
       <c r="G209" s="2">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="L209">
+        <v>7.75</v>
       </c>
       <c r="M209">
-        <v>5</v>
-      </c>
-      <c r="P209">
-        <v>7.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R209" s="1">
-        <v>6.3166666666666664</v>
+        <v>6.7</v>
       </c>
       <c r="U209" s="1">
         <f t="shared" si="3"/>
-        <v>5.7645833333333334</v>
+        <v>6.3125</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C210" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E210" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F210" s="2">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="G210" s="2">
+        <v>5</v>
+      </c>
+      <c r="N210">
         <v>8</v>
       </c>
-      <c r="L210">
+      <c r="P210">
         <v>7.75</v>
       </c>
-      <c r="M210">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="R210" s="1">
-        <v>6.6999999999999993</v>
+        <v>5.8500000000000005</v>
       </c>
       <c r="U210" s="1">
         <f t="shared" si="3"/>
-        <v>6.3125</v>
+        <v>5.8625000000000007</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C211" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D211" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="E211" t="s">
         <v>179</v>
       </c>
       <c r="F211" s="2">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="G211" s="2">
-        <v>5</v>
+        <v>7.25</v>
+      </c>
+      <c r="L211">
+        <v>8.5</v>
       </c>
       <c r="N211">
-        <v>8</v>
-      </c>
-      <c r="P211">
-        <v>7.75</v>
+        <v>9.25</v>
       </c>
       <c r="R211" s="1">
-        <v>6.1833333333333336</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="U211" s="1">
         <f t="shared" si="3"/>
-        <v>6.0291666666666668</v>
+        <v>6.9416666666666664</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C212" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D212" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="E212" t="s">
         <v>179</v>
       </c>
       <c r="F212" s="2">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G212" s="2">
-        <v>7.25</v>
-      </c>
-      <c r="L212">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="N212">
         <v>9.25</v>
       </c>
+      <c r="P212">
+        <v>9.5</v>
+      </c>
       <c r="R212" s="1">
-        <v>6.05</v>
+        <v>5.75</v>
       </c>
       <c r="U212" s="1">
         <f t="shared" si="3"/>
-        <v>6.55</v>
+        <v>6.5625</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C213" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D213" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E213" t="s">
         <v>179</v>
       </c>
       <c r="F213" s="2">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="G213" s="2">
-        <v>6.75</v>
+        <v>5.75</v>
       </c>
       <c r="N213">
-        <v>9.25</v>
+        <v>7.75</v>
       </c>
       <c r="P213">
-        <v>9.5</v>
+        <v>7.25</v>
       </c>
       <c r="R213" s="1">
-        <v>5.8500000000000005</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="U213" s="1">
         <f t="shared" si="3"/>
-        <v>6.6125000000000007</v>
+        <v>5.9854166666666675</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C214" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D214" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E214" t="s">
         <v>179</v>
       </c>
       <c r="F214" s="2">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G214" s="2">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="N214">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="P214">
-        <v>7.25</v>
+        <v>9.25</v>
       </c>
       <c r="R214" s="1">
-        <v>6.833333333333333</v>
+        <v>6.1166666666666671</v>
       </c>
       <c r="U214" s="1">
         <f t="shared" si="3"/>
-        <v>6.3354166666666671</v>
+        <v>6.3083333333333336</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C215" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D215" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E215" t="s">
         <v>179</v>
       </c>
       <c r="F215" s="2">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="G215" s="2">
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="N215">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="P215">
-        <v>9.25</v>
+        <v>7.25</v>
       </c>
       <c r="R215" s="1">
-        <v>5.75</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="U215" s="1">
         <f t="shared" si="3"/>
-        <v>6.125</v>
+        <v>6.4479166666666661</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C216" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D216" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E216" t="s">
         <v>179</v>
       </c>
       <c r="F216" s="2">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="G216" s="2">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="N216">
         <v>7.5</v>
       </c>
       <c r="P216">
-        <v>7.25</v>
+        <v>9.5</v>
       </c>
       <c r="R216" s="1">
-        <v>6.1333333333333337</v>
+        <v>6.8</v>
       </c>
       <c r="U216" s="1">
         <f t="shared" si="3"/>
-        <v>6.3479166666666664</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C217" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D217" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E217" t="s">
         <v>179</v>
       </c>
       <c r="F217" s="2">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G217" s="2">
         <v>7</v>
       </c>
       <c r="N217">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="P217">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="R217" s="1">
-        <v>6.1166666666666671</v>
+        <v>6.3166666666666673</v>
       </c>
       <c r="U217" s="1">
         <f t="shared" si="3"/>
-        <v>6.5583333333333336</v>
+        <v>6.7333333333333343</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C218" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D218" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="E218" t="s">
         <v>179</v>
       </c>
       <c r="F218" s="2">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
       <c r="G218" s="2">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="N218">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="P218">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="R218" s="1">
-        <v>6.333333333333333</v>
+        <v>5.9833333333333343</v>
       </c>
       <c r="U218" s="1">
         <f t="shared" si="3"/>
-        <v>6.7416666666666671</v>
+        <v>6.2354166666666675</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C219" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D219" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E219" t="s">
         <v>179</v>
       </c>
       <c r="F219" s="2">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="G219" s="2">
-        <v>6.75</v>
+        <v>7.5</v>
+      </c>
+      <c r="L219">
+        <v>6.25</v>
       </c>
       <c r="N219">
-        <v>6.75</v>
-      </c>
-      <c r="P219">
-        <v>9.75</v>
+        <v>7.75</v>
       </c>
       <c r="R219" s="1">
-        <v>6.8</v>
+        <v>7.1166666666666671</v>
       </c>
       <c r="U219" s="1">
         <f t="shared" si="3"/>
-        <v>6.6437499999999998</v>
+        <v>6.8395833333333336</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C220" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D220" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E220" t="s">
         <v>179</v>
       </c>
       <c r="F220" s="2">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="G220" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L220">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="N220">
-        <v>7.75</v>
+        <v>8</v>
+      </c>
+      <c r="P220">
+        <v>8</v>
       </c>
       <c r="R220" s="1">
-        <v>6.3166666666666673</v>
+        <v>6.05</v>
       </c>
       <c r="U220" s="1">
         <f t="shared" si="3"/>
-        <v>6.4395833333333332</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C221" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D221" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E221" t="s">
         <v>179</v>
       </c>
       <c r="F221" s="2">
-        <v>2.25</v>
+        <v>3.35</v>
       </c>
       <c r="G221" s="2">
         <v>6.75</v>
       </c>
       <c r="N221">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="P221">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R221" s="1">
-        <v>5.9833333333333343</v>
+        <v>5.9333333333333327</v>
       </c>
       <c r="U221" s="1">
         <f t="shared" si="3"/>
-        <v>6.1166666666666671</v>
+        <v>5.9166666666666661</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C222" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D222" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="E222" t="s">
         <v>179</v>
       </c>
       <c r="F222" s="2">
-        <v>3.35</v>
+        <v>2.35</v>
       </c>
       <c r="G222" s="2">
-        <v>6.75</v>
+        <v>5.25</v>
       </c>
       <c r="N222">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="P222">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R222" s="1">
-        <v>7.1166666666666671</v>
+        <v>5.95</v>
       </c>
       <c r="U222" s="1">
         <f t="shared" si="3"/>
-        <v>6.5083333333333337</v>
+        <v>5.9875000000000007</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C223" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D223" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E223" t="s">
         <v>179</v>
       </c>
       <c r="F223" s="2">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="G223" s="2">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="N223">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="P223">
-        <v>8</v>
+        <v>5.85</v>
       </c>
       <c r="R223" s="1">
-        <v>5.9333333333333327</v>
+        <v>6.4666666666666659</v>
       </c>
       <c r="U223" s="1">
         <f t="shared" si="3"/>
-        <v>5.9791666666666661</v>
+        <v>6.0270833333333336</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C224" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D224" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="E224" t="s">
         <v>179</v>
       </c>
       <c r="F224" s="2">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G224" s="2">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="N224">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="P224">
-        <v>5.85</v>
+        <v>9</v>
       </c>
       <c r="R224" s="1">
-        <v>5.95</v>
+        <v>6.18</v>
       </c>
       <c r="U224" s="1">
         <f t="shared" si="3"/>
-        <v>5.7687500000000007</v>
+        <v>6.165</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C225" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D225" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="E225" t="s">
         <v>179</v>
       </c>
       <c r="F225" s="2">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="G225" s="2">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N225">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="P225">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="R225" s="1">
-        <v>6.4666666666666659</v>
+        <v>6.25</v>
       </c>
       <c r="U225" s="1">
         <f t="shared" si="3"/>
-        <v>6.3083333333333336</v>
+        <v>6.4124999999999996</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C226" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D226" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="E226" t="s">
         <v>179</v>
       </c>
       <c r="F226" s="2">
-        <v>1.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G226" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="N226">
-        <v>8.75</v>
+        <v>5.75</v>
+      </c>
+      <c r="L226">
+        <v>7.25</v>
       </c>
       <c r="P226">
         <v>9.25</v>
       </c>
       <c r="R226" s="1">
-        <v>6.25</v>
+        <v>6.1500000000000012</v>
       </c>
       <c r="U226" s="1">
         <f t="shared" si="3"/>
-        <v>6.4124999999999996</v>
+        <v>6.3687500000000004</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C227" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D227" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E227" t="s">
         <v>179</v>
       </c>
       <c r="F227" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="G227" s="2">
-        <v>5.75</v>
-      </c>
-      <c r="L227">
         <v>7.25</v>
+      </c>
+      <c r="N227">
+        <v>8</v>
       </c>
       <c r="P227">
         <v>9.25</v>
       </c>
       <c r="R227" s="1">
-        <v>6.1500000000000012</v>
+        <v>6.4833333333333343</v>
       </c>
       <c r="U227" s="1">
         <f t="shared" si="3"/>
-        <v>6.3687500000000004</v>
+        <v>6.7416666666666671</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C228" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D228" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E228" t="s">
         <v>179</v>
       </c>
       <c r="F228" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G228" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="N228">
         <v>7.25</v>
       </c>
-      <c r="N228">
-        <v>8</v>
-      </c>
       <c r="P228">
-        <v>9.25</v>
+        <v>7.75</v>
       </c>
       <c r="R228" s="1">
-        <v>6.4833333333333343</v>
+        <v>6.3166666666666664</v>
       </c>
       <c r="U228" s="1">
         <f t="shared" si="3"/>
-        <v>6.7416666666666671</v>
+        <v>6.3458333333333332</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C229" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D229" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="E229" t="s">
         <v>179</v>
       </c>
       <c r="F229" s="2">
-        <v>3</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G229" s="2">
         <v>7.5</v>
       </c>
       <c r="N229">
-        <v>7.25</v>
+        <v>7.1</v>
       </c>
       <c r="P229">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="R229" s="1">
-        <v>6.3166666666666664</v>
+        <v>6.95</v>
       </c>
       <c r="U229" s="1">
         <f t="shared" si="3"/>
-        <v>6.3458333333333332</v>
+        <v>6.96875</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C230" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D230" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E230" t="s">
         <v>179</v>
       </c>
       <c r="F230" s="2">
-        <v>4.8499999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="G230" s="2">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="N230">
-        <v>7.1</v>
+        <v>6.35</v>
       </c>
       <c r="P230">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="R230" s="1">
-        <v>6.95</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="U230" s="1">
         <f t="shared" si="3"/>
-        <v>6.96875</v>
+        <v>5.9291666666666671</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C231" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D231" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E231" t="s">
         <v>179</v>
       </c>
       <c r="F231" s="2">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G231" s="2">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="N231">
-        <v>6.35</v>
+        <v>8.25</v>
       </c>
       <c r="P231">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="R231" s="1">
-        <v>6.083333333333333</v>
+        <v>7.0666666666666673</v>
       </c>
       <c r="U231" s="1">
         <f t="shared" si="3"/>
-        <v>5.9291666666666671</v>
+        <v>7.0020833333333332</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C232" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D232" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="E232" t="s">
         <v>179</v>
       </c>
       <c r="F232" s="2">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="G232" s="2">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="N232">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="P232">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="R232" s="1">
-        <v>7.0666666666666673</v>
+        <v>7.6166666666666671</v>
       </c>
       <c r="U232" s="1">
         <f t="shared" si="3"/>
-        <v>7.0020833333333332</v>
+        <v>7.4645833333333336</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C233" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D233" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E233" t="s">
         <v>179</v>
       </c>
       <c r="F233" s="2">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="G233" s="2">
-        <v>7.25</v>
+        <v>6.25</v>
       </c>
       <c r="N233">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="P233">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="R233" s="1">
-        <v>7.6166666666666671</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="U233" s="1">
         <f t="shared" si="3"/>
-        <v>7.4645833333333336</v>
+        <v>6.9499999999999993</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C234" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D234" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E234" t="s">
         <v>179</v>
@@ -10897,148 +10912,148 @@
         <v>3.5</v>
       </c>
       <c r="G234" s="2">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="N234">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="P234">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="R234" s="1">
-        <v>6.8999999999999995</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="U234" s="1">
         <f t="shared" si="3"/>
-        <v>6.9499999999999993</v>
+        <v>6.4187499999999993</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C235" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D235" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="E235" t="s">
         <v>179</v>
       </c>
       <c r="F235" s="2">
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G235" s="2">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="N235">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="P235">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="R235" s="1">
-        <v>6.3999999999999995</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="U235" s="1">
         <f t="shared" si="3"/>
-        <v>6.4187499999999993</v>
+        <v>6.2770833333333336</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C236" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D236" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="E236" t="s">
         <v>179</v>
       </c>
       <c r="F236" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G236" s="2">
         <v>5.75</v>
       </c>
-      <c r="N236">
-        <v>8.1</v>
+      <c r="L236">
+        <v>6.35</v>
       </c>
       <c r="P236">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="R236" s="1">
         <v>6.166666666666667</v>
       </c>
       <c r="U236" s="1">
         <f t="shared" si="3"/>
-        <v>6.2770833333333336</v>
+        <v>5.9958333333333336</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C237" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D237" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E237" t="s">
         <v>179</v>
       </c>
       <c r="F237" s="2">
-        <v>2.4500000000000002</v>
+        <v>3</v>
       </c>
       <c r="G237" s="2">
-        <v>5.75</v>
-      </c>
-      <c r="L237">
-        <v>6.35</v>
+        <v>6</v>
+      </c>
+      <c r="N237">
+        <v>8.5</v>
       </c>
       <c r="P237">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="R237" s="1">
-        <v>6.166666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="U237" s="1">
         <f t="shared" si="3"/>
-        <v>5.9958333333333336</v>
+        <v>6.3541666666666661</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C238" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D238" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E238" t="s">
         <v>179</v>
       </c>
       <c r="F238" s="2">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="G238" s="2">
         <v>6</v>
@@ -11047,269 +11062,234 @@
         <v>8.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="R238" s="1">
         <v>6.083333333333333</v>
       </c>
       <c r="U238" s="1">
         <f t="shared" si="3"/>
-        <v>6.3541666666666661</v>
+        <v>6.1291666666666664</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C239" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D239" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="E239" t="s">
         <v>179</v>
       </c>
       <c r="F239" s="2">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="G239" s="2">
-        <v>6</v>
-      </c>
-      <c r="N239">
-        <v>8.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="L239">
+        <v>6.35</v>
       </c>
       <c r="P239">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="R239" s="1">
-        <v>6.083333333333333</v>
+        <v>6.5333333333333341</v>
       </c>
       <c r="U239" s="1">
         <f t="shared" si="3"/>
-        <v>6.1291666666666664</v>
+        <v>6.291666666666667</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C240" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D240" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E240" t="s">
         <v>179</v>
       </c>
       <c r="F240" s="2">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="G240" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="L240">
-        <v>6.35</v>
+        <v>6.75</v>
+      </c>
+      <c r="N240">
+        <v>8.5</v>
       </c>
       <c r="P240">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="R240" s="1">
-        <v>6.5333333333333341</v>
+        <v>5.75</v>
       </c>
       <c r="U240" s="1">
         <f t="shared" si="3"/>
-        <v>6.291666666666667</v>
+        <v>6.3250000000000002</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C241" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D241" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="E241" t="s">
         <v>179</v>
       </c>
       <c r="F241" s="2">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G241" s="2">
         <v>6.75</v>
       </c>
       <c r="N241">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="P241">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="R241" s="1">
-        <v>5.75</v>
+        <v>6.05</v>
       </c>
       <c r="U241" s="1">
         <f t="shared" si="3"/>
-        <v>6.3250000000000002</v>
+        <v>6.09375</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C242" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D242" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E242" t="s">
         <v>179</v>
       </c>
       <c r="F242" s="2">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G242" s="2">
-        <v>6.75</v>
+        <v>6.5</v>
+      </c>
+      <c r="L242">
+        <v>3.75</v>
       </c>
       <c r="N242">
-        <v>6</v>
-      </c>
-      <c r="P242">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="R242" s="1">
-        <v>6.05</v>
+        <v>7.0500000000000007</v>
       </c>
       <c r="U242" s="1">
         <f t="shared" si="3"/>
-        <v>6.09375</v>
+        <v>6.0812500000000007</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C243" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D243" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E243" t="s">
         <v>179</v>
       </c>
       <c r="F243" s="2">
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="G243" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="L243">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N243">
-        <v>6.1</v>
+        <v>8.25</v>
+      </c>
+      <c r="P243">
+        <v>9.75</v>
       </c>
       <c r="R243" s="1">
-        <v>7.0500000000000007</v>
+        <v>7.1333333333333329</v>
       </c>
       <c r="U243" s="1">
         <f t="shared" si="3"/>
-        <v>6.0812500000000007</v>
+        <v>7.2541666666666664</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C244" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D244" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E244" t="s">
         <v>179</v>
       </c>
       <c r="F244" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="G244" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="N244">
         <v>5.5</v>
       </c>
-      <c r="G244" s="2">
-        <v>6</v>
-      </c>
-      <c r="N244">
-        <v>8.25</v>
-      </c>
       <c r="P244">
-        <v>9.75</v>
+        <v>6.6</v>
       </c>
       <c r="R244" s="1">
-        <v>7.1333333333333329</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="U244" s="1">
         <f t="shared" si="3"/>
-        <v>7.2541666666666664</v>
-      </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>441</v>
-      </c>
-      <c r="C245" t="s">
-        <v>688</v>
-      </c>
-      <c r="D245" t="s">
-        <v>23</v>
-      </c>
-      <c r="E245" t="s">
-        <v>179</v>
-      </c>
-      <c r="F245" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="G245" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="N245">
-        <v>5.5</v>
-      </c>
-      <c r="P245">
-        <v>6.6</v>
-      </c>
-      <c r="R245" s="1">
-        <v>6.083333333333333</v>
-      </c>
-      <c r="U245" s="1">
-        <f t="shared" si="3"/>
         <v>5.6604166666666664</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{D9E38167-50E0-4DF0-BF62-CC8A707F22BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
